--- a/Data/7.35b.xlsx
+++ b/Data/7.35b.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="160">
   <si>
     <t>Name</t>
   </si>
@@ -61,7 +61,7 @@
     <t>HP_g</t>
   </si>
   <si>
-    <t>HP_sb</t>
+    <t>HP_s_b</t>
   </si>
   <si>
     <t>MagRes_b</t>
@@ -82,9 +82,6 @@
     <t>DmgBlk_dmg</t>
   </si>
   <si>
-    <t>LVL</t>
-  </si>
-  <si>
     <t>MS_b</t>
   </si>
   <si>
@@ -100,7 +97,7 @@
     <t>MP_b</t>
   </si>
   <si>
-    <t>MP_sb</t>
+    <t>MP_s_b</t>
   </si>
   <si>
     <t>AtkRngT</t>
@@ -762,7 +759,7 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="2" max="31" width="6.38"/>
+    <col customWidth="1" min="2" max="30" width="6.38"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -856,16 +853,13 @@
       <c r="AD1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="1" t="s">
-        <v>30</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>31</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>32</v>
       </c>
       <c r="C2" s="2">
         <v>22.0</v>
@@ -925,44 +919,41 @@
         <v>0.0</v>
       </c>
       <c r="V2" s="2">
-        <f t="shared" ref="V2:V125" si="1">IF(AE2 = "Meele", 0.5, 0)</f>
+        <f t="shared" ref="V2:V125" si="1">IF(AD2 = "Meele", 0.5, 0)</f>
         <v>0.5</v>
       </c>
       <c r="W2" s="2">
-        <f t="shared" ref="W2:W125" si="2">IF(AE2="Meele",16,0)</f>
+        <f t="shared" ref="W2:W125" si="2">IF(AD2="Meele",16,0)</f>
         <v>16</v>
       </c>
       <c r="X2" s="2">
-        <v>1.0</v>
+        <v>325.0</v>
       </c>
       <c r="Y2" s="2">
-        <v>325.0</v>
+        <v>1800.0</v>
       </c>
       <c r="Z2" s="2">
-        <v>1800.0</v>
+        <v>800.0</v>
       </c>
       <c r="AA2" s="2">
-        <v>800.0</v>
+        <v>0.6</v>
       </c>
       <c r="AB2" s="2">
-        <v>0.6</v>
+        <v>75.0</v>
       </c>
       <c r="AC2" s="2">
-        <v>75.0</v>
-      </c>
-      <c r="AD2" s="2">
-        <v>0.25</v>
-      </c>
-      <c r="AE2" s="2" t="s">
-        <v>33</v>
+        <v>0.25</v>
+      </c>
+      <c r="AD2" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>34</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>35</v>
       </c>
       <c r="C3" s="2">
         <v>23.0</v>
@@ -1027,36 +1018,33 @@
         <v>16</v>
       </c>
       <c r="X3" s="2">
-        <v>1.0</v>
+        <v>295.0</v>
       </c>
       <c r="Y3" s="2">
-        <v>295.0</v>
+        <v>1800.0</v>
       </c>
       <c r="Z3" s="2">
-        <v>1800.0</v>
+        <v>800.0</v>
       </c>
       <c r="AA3" s="2">
-        <v>800.0</v>
+        <v>0.6</v>
       </c>
       <c r="AB3" s="2">
-        <v>0.6</v>
+        <v>75.0</v>
       </c>
       <c r="AC3" s="2">
-        <v>75.0</v>
-      </c>
-      <c r="AD3" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="AE3" s="2" t="s">
-        <v>33</v>
+        <v>0.0</v>
+      </c>
+      <c r="AD3" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>36</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>37</v>
       </c>
       <c r="C4" s="2">
         <v>20.0</v>
@@ -1121,36 +1109,33 @@
         <v>0</v>
       </c>
       <c r="X4" s="2">
-        <v>1.0</v>
+        <v>285.0</v>
       </c>
       <c r="Y4" s="2">
-        <v>285.0</v>
+        <v>1800.0</v>
       </c>
       <c r="Z4" s="2">
-        <v>1800.0</v>
+        <v>800.0</v>
       </c>
       <c r="AA4" s="2">
-        <v>800.0</v>
+        <v>0.6</v>
       </c>
       <c r="AB4" s="2">
-        <v>0.6</v>
+        <v>75.0</v>
       </c>
       <c r="AC4" s="2">
-        <v>75.0</v>
-      </c>
-      <c r="AD4" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="AE4" s="2" t="s">
-        <v>38</v>
+        <v>0.0</v>
+      </c>
+      <c r="AD4" s="2" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>39</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>40</v>
       </c>
       <c r="C5" s="2">
         <v>19.0</v>
@@ -1215,36 +1200,33 @@
         <v>16</v>
       </c>
       <c r="X5" s="2">
-        <v>1.0</v>
+        <v>310.0</v>
       </c>
       <c r="Y5" s="2">
-        <v>310.0</v>
+        <v>1800.0</v>
       </c>
       <c r="Z5" s="2">
-        <v>1800.0</v>
+        <v>800.0</v>
       </c>
       <c r="AA5" s="2">
-        <v>800.0</v>
+        <v>0.6</v>
       </c>
       <c r="AB5" s="2">
-        <v>0.6</v>
+        <v>75.0</v>
       </c>
       <c r="AC5" s="2">
-        <v>75.0</v>
-      </c>
-      <c r="AD5" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="AE5" s="2" t="s">
-        <v>33</v>
+        <v>0.0</v>
+      </c>
+      <c r="AD5" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C6" s="2">
         <v>22.0</v>
@@ -1309,36 +1291,33 @@
         <v>0</v>
       </c>
       <c r="X6" s="2">
-        <v>1.0</v>
+        <v>285.0</v>
       </c>
       <c r="Y6" s="2">
-        <v>285.0</v>
+        <v>1800.0</v>
       </c>
       <c r="Z6" s="2">
-        <v>1800.0</v>
+        <v>800.0</v>
       </c>
       <c r="AA6" s="2">
-        <v>800.0</v>
+        <v>0.7</v>
       </c>
       <c r="AB6" s="2">
-        <v>0.7</v>
+        <v>75.0</v>
       </c>
       <c r="AC6" s="2">
-        <v>75.0</v>
-      </c>
-      <c r="AD6" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="AE6" s="2" t="s">
-        <v>38</v>
+        <v>0.0</v>
+      </c>
+      <c r="AD6" s="2" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C7" s="2">
         <v>25.0</v>
@@ -1403,36 +1382,33 @@
         <v>16</v>
       </c>
       <c r="X7" s="2">
-        <v>1.0</v>
+        <v>315.0</v>
       </c>
       <c r="Y7" s="2">
-        <v>315.0</v>
+        <v>1800.0</v>
       </c>
       <c r="Z7" s="2">
-        <v>1800.0</v>
+        <v>800.0</v>
       </c>
       <c r="AA7" s="2">
-        <v>800.0</v>
+        <v>0.6</v>
       </c>
       <c r="AB7" s="2">
-        <v>0.6</v>
+        <v>75.0</v>
       </c>
       <c r="AC7" s="2">
-        <v>75.0</v>
-      </c>
-      <c r="AD7" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="AE7" s="2" t="s">
-        <v>33</v>
+        <v>0.0</v>
+      </c>
+      <c r="AD7" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C8" s="2">
         <v>23.0</v>
@@ -1497,36 +1473,33 @@
         <v>0</v>
       </c>
       <c r="X8" s="2">
-        <v>1.0</v>
+        <v>305.0</v>
       </c>
       <c r="Y8" s="2">
-        <v>305.0</v>
+        <v>1800.0</v>
       </c>
       <c r="Z8" s="2">
-        <v>1800.0</v>
+        <v>1200.0</v>
       </c>
       <c r="AA8" s="2">
-        <v>1200.0</v>
+        <v>0.6</v>
       </c>
       <c r="AB8" s="2">
-        <v>0.6</v>
+        <v>75.0</v>
       </c>
       <c r="AC8" s="2">
-        <v>75.0</v>
-      </c>
-      <c r="AD8" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="AE8" s="2" t="s">
-        <v>38</v>
+        <v>0.0</v>
+      </c>
+      <c r="AD8" s="2" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C9" s="2">
         <v>28.0</v>
@@ -1591,36 +1564,33 @@
         <v>0</v>
       </c>
       <c r="X9" s="2">
-        <v>1.0</v>
+        <v>330.0</v>
       </c>
       <c r="Y9" s="2">
-        <v>330.0</v>
+        <v>1600.0</v>
       </c>
       <c r="Z9" s="2">
-        <v>1600.0</v>
+        <v>800.0</v>
       </c>
       <c r="AA9" s="2">
-        <v>800.0</v>
+        <v>0.9</v>
       </c>
       <c r="AB9" s="2">
-        <v>0.9</v>
+        <v>75.0</v>
       </c>
       <c r="AC9" s="2">
-        <v>75.0</v>
-      </c>
-      <c r="AD9" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="AE9" s="2" t="s">
-        <v>38</v>
+        <v>0.0</v>
+      </c>
+      <c r="AD9" s="2" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C10" s="2">
         <v>25.0</v>
@@ -1685,36 +1655,33 @@
         <v>0</v>
       </c>
       <c r="X10" s="2">
-        <v>1.0</v>
+        <v>305.0</v>
       </c>
       <c r="Y10" s="2">
-        <v>305.0</v>
+        <v>1800.0</v>
       </c>
       <c r="Z10" s="2">
-        <v>1800.0</v>
+        <v>800.0</v>
       </c>
       <c r="AA10" s="2">
-        <v>800.0</v>
+        <v>0.6</v>
       </c>
       <c r="AB10" s="2">
-        <v>0.6</v>
+        <v>75.0</v>
       </c>
       <c r="AC10" s="2">
-        <v>75.0</v>
-      </c>
-      <c r="AD10" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="AE10" s="2" t="s">
-        <v>38</v>
+        <v>0.0</v>
+      </c>
+      <c r="AD10" s="2" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C11" s="2">
         <v>24.0</v>
@@ -1779,36 +1746,33 @@
         <v>0</v>
       </c>
       <c r="X11" s="2">
-        <v>1.0</v>
+        <v>300.0</v>
       </c>
       <c r="Y11" s="2">
-        <v>300.0</v>
+        <v>1800.0</v>
       </c>
       <c r="Z11" s="2">
-        <v>1800.0</v>
+        <v>800.0</v>
       </c>
       <c r="AA11" s="2">
-        <v>800.0</v>
+        <v>0.6</v>
       </c>
       <c r="AB11" s="2">
-        <v>0.6</v>
+        <v>75.0</v>
       </c>
       <c r="AC11" s="2">
-        <v>75.0</v>
-      </c>
-      <c r="AD11" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="AE11" s="2" t="s">
-        <v>38</v>
+        <v>0.0</v>
+      </c>
+      <c r="AD11" s="2" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C12" s="2">
         <v>19.0</v>
@@ -1873,36 +1837,33 @@
         <v>16</v>
       </c>
       <c r="X12" s="2">
-        <v>1.0</v>
+        <v>325.0</v>
       </c>
       <c r="Y12" s="2">
-        <v>325.0</v>
+        <v>1800.0</v>
       </c>
       <c r="Z12" s="2">
-        <v>1800.0</v>
+        <v>1000.0</v>
       </c>
       <c r="AA12" s="2">
-        <v>1000.0</v>
+        <v>0.6</v>
       </c>
       <c r="AB12" s="2">
-        <v>0.6</v>
+        <v>75.0</v>
       </c>
       <c r="AC12" s="2">
-        <v>75.0</v>
-      </c>
-      <c r="AD12" s="2">
         <v>0.5</v>
       </c>
-      <c r="AE12" s="2" t="s">
-        <v>33</v>
+      <c r="AD12" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C13" s="2">
         <v>23.0</v>
@@ -1967,36 +1928,33 @@
         <v>16</v>
       </c>
       <c r="X13" s="2">
-        <v>1.0</v>
+        <v>310.0</v>
       </c>
       <c r="Y13" s="2">
-        <v>310.0</v>
+        <v>1800.0</v>
       </c>
       <c r="Z13" s="2">
-        <v>1800.0</v>
+        <v>800.0</v>
       </c>
       <c r="AA13" s="2">
-        <v>800.0</v>
+        <v>0.6</v>
       </c>
       <c r="AB13" s="2">
-        <v>0.6</v>
+        <v>75.0</v>
       </c>
       <c r="AC13" s="2">
-        <v>75.0</v>
-      </c>
-      <c r="AD13" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="AE13" s="2" t="s">
-        <v>33</v>
+        <v>0.0</v>
+      </c>
+      <c r="AD13" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C14" s="2">
         <v>22.0</v>
@@ -2061,36 +2019,33 @@
         <v>16</v>
       </c>
       <c r="X14" s="2">
-        <v>1.0</v>
+        <v>295.0</v>
       </c>
       <c r="Y14" s="2">
-        <v>295.0</v>
+        <v>1800.0</v>
       </c>
       <c r="Z14" s="2">
-        <v>1800.0</v>
+        <v>800.0</v>
       </c>
       <c r="AA14" s="2">
-        <v>800.0</v>
+        <v>0.9</v>
       </c>
       <c r="AB14" s="2">
-        <v>0.9</v>
+        <v>75.0</v>
       </c>
       <c r="AC14" s="2">
-        <v>75.0</v>
-      </c>
-      <c r="AD14" s="2">
         <v>0.4</v>
       </c>
-      <c r="AE14" s="2" t="s">
-        <v>33</v>
+      <c r="AD14" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C15" s="2">
         <v>19.0</v>
@@ -2155,36 +2110,33 @@
         <v>16</v>
       </c>
       <c r="X15" s="2">
-        <v>1.0</v>
+        <v>285.0</v>
       </c>
       <c r="Y15" s="2">
-        <v>285.0</v>
+        <v>1800.0</v>
       </c>
       <c r="Z15" s="2">
-        <v>1800.0</v>
+        <v>800.0</v>
       </c>
       <c r="AA15" s="2">
-        <v>800.0</v>
+        <v>0.6</v>
       </c>
       <c r="AB15" s="2">
-        <v>0.6</v>
+        <v>75.0</v>
       </c>
       <c r="AC15" s="2">
-        <v>75.0</v>
-      </c>
-      <c r="AD15" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="AE15" s="2" t="s">
-        <v>33</v>
+        <v>0.0</v>
+      </c>
+      <c r="AD15" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C16" s="2">
         <v>27.0</v>
@@ -2249,36 +2201,33 @@
         <v>16</v>
       </c>
       <c r="X16" s="2">
-        <v>1.0</v>
+        <v>310.0</v>
       </c>
       <c r="Y16" s="2">
-        <v>310.0</v>
+        <v>1800.0</v>
       </c>
       <c r="Z16" s="2">
-        <v>1800.0</v>
+        <v>800.0</v>
       </c>
       <c r="AA16" s="2">
-        <v>800.0</v>
+        <v>0.6</v>
       </c>
       <c r="AB16" s="2">
-        <v>0.6</v>
+        <v>75.0</v>
       </c>
       <c r="AC16" s="2">
-        <v>75.0</v>
-      </c>
-      <c r="AD16" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="AE16" s="2" t="s">
-        <v>33</v>
+        <v>0.0</v>
+      </c>
+      <c r="AD16" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C17" s="2">
         <v>24.0</v>
@@ -2343,36 +2292,33 @@
         <v>16</v>
       </c>
       <c r="X17" s="2">
-        <v>1.0</v>
+        <v>325.0</v>
       </c>
       <c r="Y17" s="2">
-        <v>325.0</v>
+        <v>1800.0</v>
       </c>
       <c r="Z17" s="2">
-        <v>1800.0</v>
+        <v>800.0</v>
       </c>
       <c r="AA17" s="2">
-        <v>800.0</v>
+        <v>0.6</v>
       </c>
       <c r="AB17" s="2">
-        <v>0.6</v>
+        <v>75.0</v>
       </c>
       <c r="AC17" s="2">
-        <v>75.0</v>
-      </c>
-      <c r="AD17" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="AE17" s="2" t="s">
-        <v>33</v>
+        <v>0.0</v>
+      </c>
+      <c r="AD17" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C18" s="2">
         <v>23.0</v>
@@ -2437,36 +2383,33 @@
         <v>0</v>
       </c>
       <c r="X18" s="2">
-        <v>1.0</v>
+        <v>305.0</v>
       </c>
       <c r="Y18" s="2">
-        <v>305.0</v>
+        <v>1800.0</v>
       </c>
       <c r="Z18" s="2">
-        <v>1800.0</v>
+        <v>800.0</v>
       </c>
       <c r="AA18" s="2">
-        <v>800.0</v>
+        <v>0.6</v>
       </c>
       <c r="AB18" s="2">
-        <v>0.6</v>
+        <v>75.0</v>
       </c>
       <c r="AC18" s="2">
-        <v>75.0</v>
-      </c>
-      <c r="AD18" s="2">
         <v>0.5</v>
       </c>
-      <c r="AE18" s="2" t="s">
-        <v>38</v>
+      <c r="AD18" s="2" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C19" s="2">
         <v>17.0</v>
@@ -2531,36 +2474,33 @@
         <v>0</v>
       </c>
       <c r="X19" s="2">
-        <v>1.0</v>
+        <v>290.0</v>
       </c>
       <c r="Y19" s="2">
-        <v>290.0</v>
+        <v>1800.0</v>
       </c>
       <c r="Z19" s="2">
-        <v>1800.0</v>
+        <v>800.0</v>
       </c>
       <c r="AA19" s="2">
-        <v>800.0</v>
+        <v>0.6</v>
       </c>
       <c r="AB19" s="2">
-        <v>0.6</v>
+        <v>75.0</v>
       </c>
       <c r="AC19" s="2">
-        <v>75.0</v>
-      </c>
-      <c r="AD19" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="AE19" s="2" t="s">
-        <v>38</v>
+        <v>0.0</v>
+      </c>
+      <c r="AD19" s="2" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C20" s="2">
         <v>27.0</v>
@@ -2625,36 +2565,33 @@
         <v>16</v>
       </c>
       <c r="X20" s="2">
-        <v>1.0</v>
+        <v>310.0</v>
       </c>
       <c r="Y20" s="2">
-        <v>310.0</v>
+        <v>1800.0</v>
       </c>
       <c r="Z20" s="2">
-        <v>1800.0</v>
+        <v>800.0</v>
       </c>
       <c r="AA20" s="2">
-        <v>800.0</v>
+        <v>0.6</v>
       </c>
       <c r="AB20" s="2">
-        <v>0.6</v>
+        <v>75.0</v>
       </c>
       <c r="AC20" s="2">
-        <v>75.0</v>
-      </c>
-      <c r="AD20" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="AE20" s="2" t="s">
-        <v>33</v>
+        <v>0.0</v>
+      </c>
+      <c r="AD20" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C21" s="2">
         <v>17.0</v>
@@ -2719,36 +2656,33 @@
         <v>0</v>
       </c>
       <c r="X21" s="2">
-        <v>1.0</v>
+        <v>280.0</v>
       </c>
       <c r="Y21" s="2">
-        <v>280.0</v>
+        <v>1800.0</v>
       </c>
       <c r="Z21" s="2">
-        <v>1800.0</v>
+        <v>800.0</v>
       </c>
       <c r="AA21" s="2">
-        <v>800.0</v>
+        <v>0.6</v>
       </c>
       <c r="AB21" s="2">
-        <v>0.6</v>
+        <v>75.0</v>
       </c>
       <c r="AC21" s="2">
-        <v>75.0</v>
-      </c>
-      <c r="AD21" s="2">
         <v>0.5</v>
       </c>
-      <c r="AE21" s="2" t="s">
-        <v>38</v>
+      <c r="AD21" s="2" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C22" s="2">
         <v>22.0</v>
@@ -2813,36 +2747,33 @@
         <v>16</v>
       </c>
       <c r="X22" s="2">
-        <v>1.0</v>
+        <v>295.0</v>
       </c>
       <c r="Y22" s="2">
-        <v>295.0</v>
+        <v>1800.0</v>
       </c>
       <c r="Z22" s="2">
-        <v>1800.0</v>
+        <v>800.0</v>
       </c>
       <c r="AA22" s="2">
-        <v>800.0</v>
+        <v>0.6</v>
       </c>
       <c r="AB22" s="2">
-        <v>0.6</v>
+        <v>75.0</v>
       </c>
       <c r="AC22" s="2">
-        <v>75.0</v>
-      </c>
-      <c r="AD22" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="AE22" s="2" t="s">
-        <v>33</v>
+        <v>0.0</v>
+      </c>
+      <c r="AD22" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C23" s="2">
         <v>20.0</v>
@@ -2907,36 +2838,33 @@
         <v>0</v>
       </c>
       <c r="X23" s="2">
-        <v>1.0</v>
+        <v>290.0</v>
       </c>
       <c r="Y23" s="2">
-        <v>290.0</v>
+        <v>1800.0</v>
       </c>
       <c r="Z23" s="2">
-        <v>1800.0</v>
+        <v>800.0</v>
       </c>
       <c r="AA23" s="2">
-        <v>800.0</v>
+        <v>0.7</v>
       </c>
       <c r="AB23" s="2">
-        <v>0.7</v>
+        <v>75.0</v>
       </c>
       <c r="AC23" s="2">
-        <v>75.0</v>
-      </c>
-      <c r="AD23" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="AE23" s="2" t="s">
-        <v>38</v>
+        <v>0.0</v>
+      </c>
+      <c r="AD23" s="2" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C24" s="2">
         <v>25.0</v>
@@ -3001,36 +2929,33 @@
         <v>16</v>
       </c>
       <c r="X24" s="2">
-        <v>1.0</v>
+        <v>300.0</v>
       </c>
       <c r="Y24" s="2">
-        <v>300.0</v>
+        <v>1800.0</v>
       </c>
       <c r="Z24" s="2">
-        <v>1800.0</v>
+        <v>800.0</v>
       </c>
       <c r="AA24" s="2">
-        <v>800.0</v>
+        <v>0.6</v>
       </c>
       <c r="AB24" s="2">
-        <v>0.6</v>
+        <v>75.0</v>
       </c>
       <c r="AC24" s="2">
-        <v>75.0</v>
-      </c>
-      <c r="AD24" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="AE24" s="2" t="s">
-        <v>33</v>
+        <v>0.0</v>
+      </c>
+      <c r="AD24" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C25" s="2">
         <v>18.0</v>
@@ -3095,36 +3020,33 @@
         <v>0</v>
       </c>
       <c r="X25" s="2">
-        <v>1.0</v>
+        <v>305.0</v>
       </c>
       <c r="Y25" s="2">
-        <v>305.0</v>
+        <v>1800.0</v>
       </c>
       <c r="Z25" s="2">
-        <v>1800.0</v>
+        <v>800.0</v>
       </c>
       <c r="AA25" s="2">
-        <v>800.0</v>
+        <v>0.7</v>
       </c>
       <c r="AB25" s="2">
-        <v>0.7</v>
+        <v>75.0</v>
       </c>
       <c r="AC25" s="2">
-        <v>75.0</v>
-      </c>
-      <c r="AD25" s="2">
         <v>0.3</v>
       </c>
-      <c r="AE25" s="2" t="s">
-        <v>38</v>
+      <c r="AD25" s="2" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C26" s="2">
         <v>21.0</v>
@@ -3189,36 +3111,33 @@
         <v>0</v>
       </c>
       <c r="X26" s="2">
-        <v>1.0</v>
+        <v>290.0</v>
       </c>
       <c r="Y26" s="2">
-        <v>290.0</v>
+        <v>1800.0</v>
       </c>
       <c r="Z26" s="2">
-        <v>1800.0</v>
+        <v>800.0</v>
       </c>
       <c r="AA26" s="2">
-        <v>800.0</v>
+        <v>0.8</v>
       </c>
       <c r="AB26" s="2">
-        <v>0.8</v>
+        <v>75.0</v>
       </c>
       <c r="AC26" s="2">
-        <v>75.0</v>
-      </c>
-      <c r="AD26" s="2">
         <v>0.5</v>
       </c>
-      <c r="AE26" s="2" t="s">
-        <v>38</v>
+      <c r="AD26" s="2" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C27" s="2">
         <v>21.0</v>
@@ -3283,36 +3202,33 @@
         <v>0</v>
       </c>
       <c r="X27" s="2">
-        <v>1.0</v>
+        <v>295.0</v>
       </c>
       <c r="Y27" s="2">
-        <v>295.0</v>
+        <v>1800.0</v>
       </c>
       <c r="Z27" s="2">
-        <v>1800.0</v>
+        <v>800.0</v>
       </c>
       <c r="AA27" s="2">
-        <v>800.0</v>
+        <v>0.6</v>
       </c>
       <c r="AB27" s="2">
-        <v>0.6</v>
+        <v>75.0</v>
       </c>
       <c r="AC27" s="2">
-        <v>75.0</v>
-      </c>
-      <c r="AD27" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="AE27" s="2" t="s">
-        <v>38</v>
+        <v>0.0</v>
+      </c>
+      <c r="AD27" s="2" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C28" s="2">
         <v>24.0</v>
@@ -3377,36 +3293,33 @@
         <v>16</v>
       </c>
       <c r="X28" s="2">
-        <v>1.0</v>
+        <v>290.0</v>
       </c>
       <c r="Y28" s="2">
-        <v>290.0</v>
+        <v>1800.0</v>
       </c>
       <c r="Z28" s="2">
-        <v>1800.0</v>
+        <v>800.0</v>
       </c>
       <c r="AA28" s="2">
-        <v>800.0</v>
+        <v>0.6</v>
       </c>
       <c r="AB28" s="2">
-        <v>0.6</v>
+        <v>75.0</v>
       </c>
       <c r="AC28" s="2">
-        <v>75.0</v>
-      </c>
-      <c r="AD28" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="AE28" s="2" t="s">
-        <v>33</v>
+        <v>0.0</v>
+      </c>
+      <c r="AD28" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C29" s="2">
         <v>21.0</v>
@@ -3471,36 +3384,33 @@
         <v>16</v>
       </c>
       <c r="X29" s="2">
-        <v>1.0</v>
+        <v>315.0</v>
       </c>
       <c r="Y29" s="2">
-        <v>315.0</v>
+        <v>1800.0</v>
       </c>
       <c r="Z29" s="2">
-        <v>1800.0</v>
+        <v>800.0</v>
       </c>
       <c r="AA29" s="2">
-        <v>800.0</v>
+        <v>0.6</v>
       </c>
       <c r="AB29" s="2">
-        <v>0.6</v>
+        <v>75.0</v>
       </c>
       <c r="AC29" s="2">
-        <v>75.0</v>
-      </c>
-      <c r="AD29" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="AE29" s="2" t="s">
-        <v>33</v>
+        <v>0.0</v>
+      </c>
+      <c r="AD29" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C30" s="2">
         <v>16.0</v>
@@ -3565,36 +3475,33 @@
         <v>0</v>
       </c>
       <c r="X30" s="2">
-        <v>1.0</v>
+        <v>300.0</v>
       </c>
       <c r="Y30" s="2">
-        <v>300.0</v>
+        <v>1800.0</v>
       </c>
       <c r="Z30" s="2">
-        <v>1800.0</v>
+        <v>800.0</v>
       </c>
       <c r="AA30" s="2">
-        <v>800.0</v>
+        <v>0.7</v>
       </c>
       <c r="AB30" s="2">
-        <v>0.7</v>
+        <v>75.0</v>
       </c>
       <c r="AC30" s="2">
-        <v>75.0</v>
-      </c>
-      <c r="AD30" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="AE30" s="2" t="s">
-        <v>38</v>
+        <v>0.0</v>
+      </c>
+      <c r="AD30" s="2" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C31" s="2">
         <v>22.0</v>
@@ -3659,36 +3566,33 @@
         <v>16</v>
       </c>
       <c r="X31" s="2">
-        <v>1.0</v>
+        <v>290.0</v>
       </c>
       <c r="Y31" s="2">
-        <v>290.0</v>
+        <v>1800.0</v>
       </c>
       <c r="Z31" s="2">
-        <v>1800.0</v>
+        <v>800.0</v>
       </c>
       <c r="AA31" s="2">
-        <v>800.0</v>
+        <v>0.6</v>
       </c>
       <c r="AB31" s="2">
-        <v>0.6</v>
+        <v>75.0</v>
       </c>
       <c r="AC31" s="2">
-        <v>75.0</v>
-      </c>
-      <c r="AD31" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="AE31" s="2" t="s">
-        <v>33</v>
+        <v>0.0</v>
+      </c>
+      <c r="AD31" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C32" s="2">
         <v>22.0</v>
@@ -3753,36 +3657,33 @@
         <v>16</v>
       </c>
       <c r="X32" s="2">
-        <v>1.0</v>
+        <v>315.0</v>
       </c>
       <c r="Y32" s="2">
-        <v>315.0</v>
+        <v>1800.0</v>
       </c>
       <c r="Z32" s="2">
-        <v>1800.0</v>
+        <v>800.0</v>
       </c>
       <c r="AA32" s="2">
-        <v>800.0</v>
+        <v>0.9</v>
       </c>
       <c r="AB32" s="2">
-        <v>0.9</v>
+        <v>75.0</v>
       </c>
       <c r="AC32" s="2">
-        <v>75.0</v>
-      </c>
-      <c r="AD32" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="AE32" s="2" t="s">
-        <v>33</v>
+        <v>0.0</v>
+      </c>
+      <c r="AD32" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C33" s="2">
         <v>26.0</v>
@@ -3847,36 +3748,33 @@
         <v>16</v>
       </c>
       <c r="X33" s="2">
-        <v>1.0</v>
+        <v>310.0</v>
       </c>
       <c r="Y33" s="2">
-        <v>310.0</v>
+        <v>1800.0</v>
       </c>
       <c r="Z33" s="2">
-        <v>1800.0</v>
+        <v>800.0</v>
       </c>
       <c r="AA33" s="2">
-        <v>800.0</v>
+        <v>0.6</v>
       </c>
       <c r="AB33" s="2">
-        <v>0.6</v>
+        <v>75.0</v>
       </c>
       <c r="AC33" s="2">
-        <v>75.0</v>
-      </c>
-      <c r="AD33" s="2">
-        <v>0.25</v>
-      </c>
-      <c r="AE33" s="2" t="s">
-        <v>33</v>
+        <v>0.25</v>
+      </c>
+      <c r="AD33" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C34" s="2">
         <v>22.0</v>
@@ -3941,36 +3839,33 @@
         <v>16</v>
       </c>
       <c r="X34" s="2">
-        <v>1.0</v>
+        <v>300.0</v>
       </c>
       <c r="Y34" s="2">
-        <v>300.0</v>
+        <v>1800.0</v>
       </c>
       <c r="Z34" s="2">
-        <v>1800.0</v>
+        <v>800.0</v>
       </c>
       <c r="AA34" s="2">
-        <v>800.0</v>
+        <v>0.8</v>
       </c>
       <c r="AB34" s="2">
-        <v>0.8</v>
+        <v>75.0</v>
       </c>
       <c r="AC34" s="2">
-        <v>75.0</v>
-      </c>
-      <c r="AD34" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="AE34" s="2" t="s">
-        <v>33</v>
+        <v>0.0</v>
+      </c>
+      <c r="AD34" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C35" s="2">
         <v>17.0</v>
@@ -4035,36 +3930,33 @@
         <v>0</v>
       </c>
       <c r="X35" s="2">
-        <v>1.0</v>
+        <v>320.0</v>
       </c>
       <c r="Y35" s="2">
-        <v>320.0</v>
+        <v>1800.0</v>
       </c>
       <c r="Z35" s="2">
-        <v>1800.0</v>
+        <v>800.0</v>
       </c>
       <c r="AA35" s="2">
-        <v>800.0</v>
+        <v>0.6</v>
       </c>
       <c r="AB35" s="2">
-        <v>0.6</v>
+        <v>75.0</v>
       </c>
       <c r="AC35" s="2">
-        <v>75.0</v>
-      </c>
-      <c r="AD35" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="AE35" s="2" t="s">
-        <v>38</v>
+        <v>0.0</v>
+      </c>
+      <c r="AD35" s="2" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C36" s="2">
         <v>21.0</v>
@@ -4129,36 +4021,33 @@
         <v>0</v>
       </c>
       <c r="X36" s="2">
-        <v>1.0</v>
+        <v>290.0</v>
       </c>
       <c r="Y36" s="2">
-        <v>290.0</v>
+        <v>1800.0</v>
       </c>
       <c r="Z36" s="2">
-        <v>1800.0</v>
+        <v>800.0</v>
       </c>
       <c r="AA36" s="2">
-        <v>800.0</v>
+        <v>0.6</v>
       </c>
       <c r="AB36" s="2">
-        <v>0.6</v>
+        <v>75.0</v>
       </c>
       <c r="AC36" s="2">
-        <v>75.0</v>
-      </c>
-      <c r="AD36" s="2">
         <v>0.5</v>
       </c>
-      <c r="AE36" s="2" t="s">
-        <v>38</v>
+      <c r="AD36" s="2" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C37" s="2">
         <v>20.0</v>
@@ -4223,36 +4112,33 @@
         <v>16</v>
       </c>
       <c r="X37" s="2">
-        <v>1.0</v>
+        <v>300.0</v>
       </c>
       <c r="Y37" s="2">
-        <v>300.0</v>
+        <v>1800.0</v>
       </c>
       <c r="Z37" s="2">
-        <v>1800.0</v>
+        <v>800.0</v>
       </c>
       <c r="AA37" s="2">
-        <v>800.0</v>
+        <v>0.9</v>
       </c>
       <c r="AB37" s="2">
-        <v>0.9</v>
+        <v>75.0</v>
       </c>
       <c r="AC37" s="2">
-        <v>75.0</v>
-      </c>
-      <c r="AD37" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="AE37" s="2" t="s">
-        <v>33</v>
+        <v>0.0</v>
+      </c>
+      <c r="AD37" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C38" s="2">
         <v>21.0</v>
@@ -4317,36 +4203,33 @@
         <v>0</v>
       </c>
       <c r="X38" s="2">
-        <v>1.0</v>
+        <v>290.0</v>
       </c>
       <c r="Y38" s="2">
-        <v>290.0</v>
+        <v>1800.0</v>
       </c>
       <c r="Z38" s="2">
-        <v>1800.0</v>
+        <v>800.0</v>
       </c>
       <c r="AA38" s="2">
-        <v>800.0</v>
+        <v>0.6</v>
       </c>
       <c r="AB38" s="2">
-        <v>0.6</v>
+        <v>75.0</v>
       </c>
       <c r="AC38" s="2">
-        <v>75.0</v>
-      </c>
-      <c r="AD38" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="AE38" s="2" t="s">
-        <v>38</v>
+        <v>0.0</v>
+      </c>
+      <c r="AD38" s="2" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C39" s="2">
         <v>22.0</v>
@@ -4411,36 +4294,33 @@
         <v>0</v>
       </c>
       <c r="X39" s="2">
-        <v>1.0</v>
+        <v>320.0</v>
       </c>
       <c r="Y39" s="2">
-        <v>320.0</v>
+        <v>1800.0</v>
       </c>
       <c r="Z39" s="2">
-        <v>1800.0</v>
+        <v>800.0</v>
       </c>
       <c r="AA39" s="2">
-        <v>800.0</v>
+        <v>0.6</v>
       </c>
       <c r="AB39" s="2">
-        <v>0.6</v>
+        <v>75.0</v>
       </c>
       <c r="AC39" s="2">
-        <v>75.0</v>
-      </c>
-      <c r="AD39" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="AE39" s="2" t="s">
-        <v>38</v>
+        <v>0.0</v>
+      </c>
+      <c r="AD39" s="2" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C40" s="2">
         <v>17.0</v>
@@ -4505,36 +4385,33 @@
         <v>0</v>
       </c>
       <c r="X40" s="2">
-        <v>1.0</v>
+        <v>310.0</v>
       </c>
       <c r="Y40" s="2">
-        <v>310.0</v>
+        <v>1800.0</v>
       </c>
       <c r="Z40" s="2">
-        <v>1800.0</v>
+        <v>800.0</v>
       </c>
       <c r="AA40" s="2">
-        <v>800.0</v>
+        <v>0.9</v>
       </c>
       <c r="AB40" s="2">
-        <v>0.9</v>
+        <v>75.0</v>
       </c>
       <c r="AC40" s="2">
-        <v>75.0</v>
-      </c>
-      <c r="AD40" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="AE40" s="2" t="s">
-        <v>38</v>
+        <v>0.0</v>
+      </c>
+      <c r="AD40" s="2" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C41" s="2">
         <v>23.0</v>
@@ -4599,36 +4476,33 @@
         <v>0</v>
       </c>
       <c r="X41" s="2">
-        <v>1.0</v>
+        <v>295.0</v>
       </c>
       <c r="Y41" s="2">
-        <v>295.0</v>
+        <v>1800.0</v>
       </c>
       <c r="Z41" s="2">
-        <v>1800.0</v>
+        <v>800.0</v>
       </c>
       <c r="AA41" s="2">
-        <v>800.0</v>
+        <v>0.6</v>
       </c>
       <c r="AB41" s="2">
-        <v>0.6</v>
+        <v>75.0</v>
       </c>
       <c r="AC41" s="2">
-        <v>75.0</v>
-      </c>
-      <c r="AD41" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="AE41" s="2" t="s">
-        <v>38</v>
+        <v>0.0</v>
+      </c>
+      <c r="AD41" s="2" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C42" s="2">
         <v>19.0</v>
@@ -4693,36 +4567,33 @@
         <v>0</v>
       </c>
       <c r="X42" s="2">
-        <v>1.0</v>
+        <v>285.0</v>
       </c>
       <c r="Y42" s="2">
-        <v>285.0</v>
+        <v>1800.0</v>
       </c>
       <c r="Z42" s="2">
-        <v>1800.0</v>
+        <v>800.0</v>
       </c>
       <c r="AA42" s="2">
-        <v>800.0</v>
+        <v>0.6</v>
       </c>
       <c r="AB42" s="2">
-        <v>0.6</v>
+        <v>75.0</v>
       </c>
       <c r="AC42" s="2">
-        <v>75.0</v>
-      </c>
-      <c r="AD42" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="AE42" s="2" t="s">
-        <v>38</v>
+        <v>0.0</v>
+      </c>
+      <c r="AD42" s="2" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C43" s="2">
         <v>17.0</v>
@@ -4787,36 +4658,33 @@
         <v>0</v>
       </c>
       <c r="X43" s="2">
-        <v>1.0</v>
+        <v>320.0</v>
       </c>
       <c r="Y43" s="2">
-        <v>320.0</v>
+        <v>1800.0</v>
       </c>
       <c r="Z43" s="2">
-        <v>1800.0</v>
+        <v>800.0</v>
       </c>
       <c r="AA43" s="2">
-        <v>800.0</v>
+        <v>0.7</v>
       </c>
       <c r="AB43" s="2">
-        <v>0.7</v>
+        <v>75.0</v>
       </c>
       <c r="AC43" s="2">
-        <v>75.0</v>
-      </c>
-      <c r="AD43" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="AE43" s="2" t="s">
-        <v>38</v>
+        <v>0.0</v>
+      </c>
+      <c r="AD43" s="2" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C44" s="2">
         <v>25.0</v>
@@ -4881,36 +4749,33 @@
         <v>0</v>
       </c>
       <c r="X44" s="2">
-        <v>1.0</v>
+        <v>290.0</v>
       </c>
       <c r="Y44" s="2">
-        <v>290.0</v>
+        <v>1800.0</v>
       </c>
       <c r="Z44" s="2">
-        <v>1800.0</v>
+        <v>800.0</v>
       </c>
       <c r="AA44" s="2">
-        <v>800.0</v>
+        <v>0.6</v>
       </c>
       <c r="AB44" s="2">
-        <v>0.6</v>
+        <v>75.0</v>
       </c>
       <c r="AC44" s="2">
-        <v>75.0</v>
-      </c>
-      <c r="AD44" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="AE44" s="2" t="s">
-        <v>38</v>
+        <v>0.0</v>
+      </c>
+      <c r="AD44" s="2" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C45" s="2">
         <v>20.0</v>
@@ -4975,36 +4840,33 @@
         <v>16</v>
       </c>
       <c r="X45" s="2">
-        <v>1.0</v>
+        <v>300.0</v>
       </c>
       <c r="Y45" s="2">
-        <v>300.0</v>
+        <v>1800.0</v>
       </c>
       <c r="Z45" s="2">
-        <v>1800.0</v>
+        <v>800.0</v>
       </c>
       <c r="AA45" s="2">
-        <v>800.0</v>
+        <v>0.6</v>
       </c>
       <c r="AB45" s="2">
-        <v>0.6</v>
+        <v>75.0</v>
       </c>
       <c r="AC45" s="2">
-        <v>75.0</v>
-      </c>
-      <c r="AD45" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="AE45" s="2" t="s">
-        <v>33</v>
+        <v>0.0</v>
+      </c>
+      <c r="AD45" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C46" s="2">
         <v>18.0</v>
@@ -5069,36 +4931,33 @@
         <v>0</v>
       </c>
       <c r="X46" s="2">
-        <v>1.0</v>
+        <v>320.0</v>
       </c>
       <c r="Y46" s="2">
-        <v>320.0</v>
+        <v>1800.0</v>
       </c>
       <c r="Z46" s="2">
-        <v>1800.0</v>
+        <v>800.0</v>
       </c>
       <c r="AA46" s="2">
-        <v>800.0</v>
+        <v>0.7</v>
       </c>
       <c r="AB46" s="2">
-        <v>0.7</v>
+        <v>75.0</v>
       </c>
       <c r="AC46" s="2">
-        <v>75.0</v>
-      </c>
-      <c r="AD46" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="AE46" s="2" t="s">
-        <v>38</v>
+        <v>0.0</v>
+      </c>
+      <c r="AD46" s="2" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C47" s="2">
         <v>24.0</v>
@@ -5163,36 +5022,33 @@
         <v>16</v>
       </c>
       <c r="X47" s="2">
-        <v>1.0</v>
+        <v>315.0</v>
       </c>
       <c r="Y47" s="2">
-        <v>315.0</v>
+        <v>1800.0</v>
       </c>
       <c r="Z47" s="2">
-        <v>1800.0</v>
+        <v>800.0</v>
       </c>
       <c r="AA47" s="2">
-        <v>800.0</v>
+        <v>0.6</v>
       </c>
       <c r="AB47" s="2">
-        <v>0.6</v>
+        <v>75.0</v>
       </c>
       <c r="AC47" s="2">
-        <v>75.0</v>
-      </c>
-      <c r="AD47" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="AE47" s="2" t="s">
-        <v>33</v>
+        <v>0.0</v>
+      </c>
+      <c r="AD47" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C48" s="2">
         <v>23.0</v>
@@ -5257,36 +5113,33 @@
         <v>16</v>
       </c>
       <c r="X48" s="2">
-        <v>1.0</v>
+        <v>325.0</v>
       </c>
       <c r="Y48" s="2">
-        <v>325.0</v>
+        <v>1800.0</v>
       </c>
       <c r="Z48" s="2">
-        <v>1800.0</v>
+        <v>800.0</v>
       </c>
       <c r="AA48" s="2">
-        <v>800.0</v>
+        <v>0.6</v>
       </c>
       <c r="AB48" s="2">
-        <v>0.6</v>
+        <v>75.0</v>
       </c>
       <c r="AC48" s="2">
-        <v>75.0</v>
-      </c>
-      <c r="AD48" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="AE48" s="2" t="s">
-        <v>33</v>
+        <v>0.0</v>
+      </c>
+      <c r="AD48" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C49" s="2">
         <v>20.0</v>
@@ -5351,36 +5204,33 @@
         <v>0</v>
       </c>
       <c r="X49" s="2">
-        <v>1.0</v>
+        <v>325.0</v>
       </c>
       <c r="Y49" s="2">
-        <v>325.0</v>
+        <v>1800.0</v>
       </c>
       <c r="Z49" s="2">
-        <v>1800.0</v>
+        <v>800.0</v>
       </c>
       <c r="AA49" s="2">
-        <v>800.0</v>
+        <v>0.6</v>
       </c>
       <c r="AB49" s="2">
-        <v>0.6</v>
+        <v>75.0</v>
       </c>
       <c r="AC49" s="2">
-        <v>75.0</v>
-      </c>
-      <c r="AD49" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="AE49" s="2" t="s">
-        <v>38</v>
+        <v>0.0</v>
+      </c>
+      <c r="AD49" s="2" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C50" s="2">
         <v>20.0</v>
@@ -5445,36 +5295,33 @@
         <v>0</v>
       </c>
       <c r="X50" s="2">
-        <v>1.0</v>
+        <v>290.0</v>
       </c>
       <c r="Y50" s="2">
-        <v>290.0</v>
+        <v>1800.0</v>
       </c>
       <c r="Z50" s="2">
-        <v>1800.0</v>
+        <v>800.0</v>
       </c>
       <c r="AA50" s="2">
-        <v>800.0</v>
+        <v>0.7</v>
       </c>
       <c r="AB50" s="2">
-        <v>0.7</v>
+        <v>75.0</v>
       </c>
       <c r="AC50" s="2">
-        <v>75.0</v>
-      </c>
-      <c r="AD50" s="2">
         <v>0.75</v>
       </c>
-      <c r="AE50" s="2" t="s">
-        <v>38</v>
+      <c r="AD50" s="2" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C51" s="2">
         <v>25.0</v>
@@ -5539,36 +5386,33 @@
         <v>16</v>
       </c>
       <c r="X51" s="2">
-        <v>1.0</v>
+        <v>320.0</v>
       </c>
       <c r="Y51" s="2">
-        <v>320.0</v>
+        <v>1800.0</v>
       </c>
       <c r="Z51" s="2">
-        <v>1800.0</v>
+        <v>800.0</v>
       </c>
       <c r="AA51" s="2">
-        <v>800.0</v>
+        <v>0.9</v>
       </c>
       <c r="AB51" s="2">
-        <v>0.9</v>
+        <v>75.0</v>
       </c>
       <c r="AC51" s="2">
-        <v>75.0</v>
-      </c>
-      <c r="AD51" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="AE51" s="2" t="s">
-        <v>33</v>
+        <v>0.0</v>
+      </c>
+      <c r="AD51" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C52" s="2">
         <v>20.0</v>
@@ -5633,36 +5477,33 @@
         <v>0</v>
       </c>
       <c r="X52" s="2">
-        <v>1.0</v>
+        <v>290.0</v>
       </c>
       <c r="Y52" s="2">
-        <v>290.0</v>
+        <v>1800.0</v>
       </c>
       <c r="Z52" s="2">
-        <v>1800.0</v>
+        <v>800.0</v>
       </c>
       <c r="AA52" s="2">
-        <v>800.0</v>
+        <v>0.6</v>
       </c>
       <c r="AB52" s="2">
-        <v>0.6</v>
+        <v>75.0</v>
       </c>
       <c r="AC52" s="2">
-        <v>75.0</v>
-      </c>
-      <c r="AD52" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="AE52" s="2" t="s">
-        <v>38</v>
+        <v>0.0</v>
+      </c>
+      <c r="AD52" s="2" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C53" s="2">
         <v>18.0</v>
@@ -5727,36 +5568,33 @@
         <v>0</v>
       </c>
       <c r="X53" s="2">
-        <v>1.0</v>
+        <v>290.0</v>
       </c>
       <c r="Y53" s="2">
-        <v>290.0</v>
+        <v>1800.0</v>
       </c>
       <c r="Z53" s="2">
-        <v>1800.0</v>
+        <v>800.0</v>
       </c>
       <c r="AA53" s="2">
-        <v>800.0</v>
+        <v>0.8</v>
       </c>
       <c r="AB53" s="2">
-        <v>0.8</v>
+        <v>75.0</v>
       </c>
       <c r="AC53" s="2">
-        <v>75.0</v>
-      </c>
-      <c r="AD53" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="AE53" s="2" t="s">
-        <v>38</v>
+        <v>0.0</v>
+      </c>
+      <c r="AD53" s="2" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C54" s="2">
         <v>20.0</v>
@@ -5821,36 +5659,33 @@
         <v>0</v>
       </c>
       <c r="X54" s="2">
-        <v>1.0</v>
+        <v>325.0</v>
       </c>
       <c r="Y54" s="2">
-        <v>325.0</v>
+        <v>1800.0</v>
       </c>
       <c r="Z54" s="2">
-        <v>1800.0</v>
+        <v>800.0</v>
       </c>
       <c r="AA54" s="2">
-        <v>800.0</v>
+        <v>0.6</v>
       </c>
       <c r="AB54" s="2">
-        <v>0.6</v>
+        <v>75.0</v>
       </c>
       <c r="AC54" s="2">
-        <v>75.0</v>
-      </c>
-      <c r="AD54" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="AE54" s="2" t="s">
-        <v>38</v>
+        <v>0.0</v>
+      </c>
+      <c r="AD54" s="2" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C55" s="2">
         <v>21.0</v>
@@ -5915,36 +5750,33 @@
         <v>0</v>
       </c>
       <c r="X55" s="2">
-        <v>1.0</v>
+        <v>325.0</v>
       </c>
       <c r="Y55" s="2">
-        <v>325.0</v>
+        <v>1800.0</v>
       </c>
       <c r="Z55" s="2">
-        <v>1800.0</v>
+        <v>800.0</v>
       </c>
       <c r="AA55" s="2">
-        <v>800.0</v>
+        <v>0.6</v>
       </c>
       <c r="AB55" s="2">
-        <v>0.6</v>
+        <v>75.0</v>
       </c>
       <c r="AC55" s="2">
-        <v>75.0</v>
-      </c>
-      <c r="AD55" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="AE55" s="2" t="s">
-        <v>38</v>
+        <v>0.0</v>
+      </c>
+      <c r="AD55" s="2" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C56" s="2">
         <v>26.0</v>
@@ -6009,36 +5841,33 @@
         <v>16</v>
       </c>
       <c r="X56" s="2">
-        <v>1.0</v>
+        <v>305.0</v>
       </c>
       <c r="Y56" s="2">
-        <v>305.0</v>
+        <v>1800.0</v>
       </c>
       <c r="Z56" s="2">
-        <v>1800.0</v>
+        <v>800.0</v>
       </c>
       <c r="AA56" s="2">
-        <v>800.0</v>
+        <v>0.6</v>
       </c>
       <c r="AB56" s="2">
-        <v>0.6</v>
+        <v>75.0</v>
       </c>
       <c r="AC56" s="2">
-        <v>75.0</v>
-      </c>
-      <c r="AD56" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="AE56" s="2" t="s">
-        <v>33</v>
+        <v>0.0</v>
+      </c>
+      <c r="AD56" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C57" s="2">
         <v>25.0</v>
@@ -6103,36 +5932,33 @@
         <v>16</v>
       </c>
       <c r="X57" s="2">
-        <v>1.0</v>
+        <v>305.0</v>
       </c>
       <c r="Y57" s="2">
-        <v>305.0</v>
+        <v>1800.0</v>
       </c>
       <c r="Z57" s="2">
-        <v>1800.0</v>
+        <v>800.0</v>
       </c>
       <c r="AA57" s="2">
-        <v>800.0</v>
+        <v>0.8</v>
       </c>
       <c r="AB57" s="2">
-        <v>0.8</v>
+        <v>75.0</v>
       </c>
       <c r="AC57" s="2">
-        <v>75.0</v>
-      </c>
-      <c r="AD57" s="2">
         <v>0.5</v>
       </c>
-      <c r="AE57" s="2" t="s">
-        <v>33</v>
+      <c r="AD57" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C58" s="2">
         <v>23.0</v>
@@ -6197,36 +6023,33 @@
         <v>16</v>
       </c>
       <c r="X58" s="2">
-        <v>1.0</v>
+        <v>315.0</v>
       </c>
       <c r="Y58" s="2">
-        <v>315.0</v>
+        <v>1800.0</v>
       </c>
       <c r="Z58" s="2">
-        <v>1800.0</v>
+        <v>800.0</v>
       </c>
       <c r="AA58" s="2">
-        <v>800.0</v>
+        <v>0.9</v>
       </c>
       <c r="AB58" s="2">
-        <v>0.9</v>
+        <v>75.0</v>
       </c>
       <c r="AC58" s="2">
-        <v>75.0</v>
-      </c>
-      <c r="AD58" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="AE58" s="2" t="s">
-        <v>33</v>
+        <v>0.0</v>
+      </c>
+      <c r="AD58" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C59" s="2">
         <v>23.0</v>
@@ -6291,36 +6114,33 @@
         <v>16</v>
       </c>
       <c r="X59" s="2">
-        <v>1.0</v>
+        <v>310.0</v>
       </c>
       <c r="Y59" s="2">
-        <v>310.0</v>
+        <v>1800.0</v>
       </c>
       <c r="Z59" s="2">
-        <v>1800.0</v>
+        <v>800.0</v>
       </c>
       <c r="AA59" s="2">
-        <v>800.0</v>
+        <v>0.8</v>
       </c>
       <c r="AB59" s="2">
-        <v>0.8</v>
+        <v>75.0</v>
       </c>
       <c r="AC59" s="2">
-        <v>75.0</v>
-      </c>
-      <c r="AD59" s="2">
         <v>0.5</v>
       </c>
-      <c r="AE59" s="2" t="s">
-        <v>33</v>
+      <c r="AD59" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C60" s="2">
         <v>0.0</v>
@@ -6385,36 +6205,33 @@
         <v>0</v>
       </c>
       <c r="X60" s="2">
-        <v>1.0</v>
+        <v>275.0</v>
       </c>
       <c r="Y60" s="2">
-        <v>275.0</v>
+        <v>1800.0</v>
       </c>
       <c r="Z60" s="2">
-        <v>1800.0</v>
+        <v>800.0</v>
       </c>
       <c r="AA60" s="2">
-        <v>800.0</v>
+        <v>0.6</v>
       </c>
       <c r="AB60" s="2">
-        <v>0.6</v>
+        <v>75.0</v>
       </c>
       <c r="AC60" s="2">
-        <v>75.0</v>
-      </c>
-      <c r="AD60" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="AE60" s="2" t="s">
-        <v>38</v>
+        <v>0.0</v>
+      </c>
+      <c r="AD60" s="2" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C61" s="2">
         <v>24.0</v>
@@ -6479,36 +6296,33 @@
         <v>16</v>
       </c>
       <c r="X61" s="2">
-        <v>1.0</v>
+        <v>330.0</v>
       </c>
       <c r="Y61" s="2">
-        <v>330.0</v>
+        <v>1800.0</v>
       </c>
       <c r="Z61" s="2">
-        <v>1800.0</v>
+        <v>800.0</v>
       </c>
       <c r="AA61" s="2">
-        <v>800.0</v>
+        <v>0.9</v>
       </c>
       <c r="AB61" s="2">
-        <v>0.9</v>
+        <v>75.0</v>
       </c>
       <c r="AC61" s="2">
-        <v>75.0</v>
-      </c>
-      <c r="AD61" s="2">
-        <v>0.25</v>
-      </c>
-      <c r="AE61" s="2" t="s">
-        <v>33</v>
+        <v>0.25</v>
+      </c>
+      <c r="AD61" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C62" s="2">
         <v>20.0</v>
@@ -6573,36 +6387,33 @@
         <v>0</v>
       </c>
       <c r="X62" s="2">
-        <v>1.0</v>
+        <v>290.0</v>
       </c>
       <c r="Y62" s="2">
-        <v>290.0</v>
+        <v>1800.0</v>
       </c>
       <c r="Z62" s="2">
-        <v>1800.0</v>
+        <v>800.0</v>
       </c>
       <c r="AA62" s="2">
-        <v>800.0</v>
+        <v>0.6</v>
       </c>
       <c r="AB62" s="2">
-        <v>0.6</v>
+        <v>75.0</v>
       </c>
       <c r="AC62" s="2">
-        <v>75.0</v>
-      </c>
-      <c r="AD62" s="2">
         <v>0.4</v>
       </c>
-      <c r="AE62" s="2" t="s">
-        <v>38</v>
+      <c r="AD62" s="2" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C63" s="2">
         <v>18.0</v>
@@ -6667,36 +6478,33 @@
         <v>16</v>
       </c>
       <c r="X63" s="2">
-        <v>1.0</v>
+        <v>300.0</v>
       </c>
       <c r="Y63" s="2">
-        <v>300.0</v>
+        <v>1800.0</v>
       </c>
       <c r="Z63" s="2">
-        <v>1800.0</v>
+        <v>800.0</v>
       </c>
       <c r="AA63" s="2">
-        <v>800.0</v>
+        <v>0.6</v>
       </c>
       <c r="AB63" s="2">
-        <v>0.6</v>
+        <v>75.0</v>
       </c>
       <c r="AC63" s="2">
-        <v>75.0</v>
-      </c>
-      <c r="AD63" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="AE63" s="2" t="s">
-        <v>33</v>
+        <v>0.0</v>
+      </c>
+      <c r="AD63" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C64" s="2">
         <v>23.0</v>
@@ -6761,36 +6569,33 @@
         <v>0</v>
       </c>
       <c r="X64" s="2">
-        <v>1.0</v>
+        <v>285.0</v>
       </c>
       <c r="Y64" s="2">
-        <v>285.0</v>
+        <v>1800.0</v>
       </c>
       <c r="Z64" s="2">
-        <v>1800.0</v>
+        <v>800.0</v>
       </c>
       <c r="AA64" s="2">
-        <v>800.0</v>
+        <v>0.7</v>
       </c>
       <c r="AB64" s="2">
-        <v>0.7</v>
+        <v>75.0</v>
       </c>
       <c r="AC64" s="2">
-        <v>75.0</v>
-      </c>
-      <c r="AD64" s="2">
         <v>0.5</v>
       </c>
-      <c r="AE64" s="2" t="s">
-        <v>38</v>
+      <c r="AD64" s="2" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C65" s="2">
         <v>19.0</v>
@@ -6855,36 +6660,33 @@
         <v>0</v>
       </c>
       <c r="X65" s="2">
-        <v>1.0</v>
+        <v>295.0</v>
       </c>
       <c r="Y65" s="2">
-        <v>295.0</v>
+        <v>1800.0</v>
       </c>
       <c r="Z65" s="2">
-        <v>1800.0</v>
+        <v>800.0</v>
       </c>
       <c r="AA65" s="2">
-        <v>800.0</v>
+        <v>0.7</v>
       </c>
       <c r="AB65" s="2">
-        <v>0.7</v>
+        <v>75.0</v>
       </c>
       <c r="AC65" s="2">
-        <v>75.0</v>
-      </c>
-      <c r="AD65" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="AE65" s="2" t="s">
-        <v>38</v>
+        <v>0.0</v>
+      </c>
+      <c r="AD65" s="2" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C66" s="2">
         <v>21.0</v>
@@ -6949,36 +6751,33 @@
         <v>16</v>
       </c>
       <c r="X66" s="2">
-        <v>1.0</v>
+        <v>330.0</v>
       </c>
       <c r="Y66" s="2">
-        <v>330.0</v>
+        <v>1800.0</v>
       </c>
       <c r="Z66" s="2">
-        <v>1800.0</v>
+        <v>800.0</v>
       </c>
       <c r="AA66" s="2">
-        <v>800.0</v>
+        <v>0.6</v>
       </c>
       <c r="AB66" s="2">
-        <v>0.6</v>
+        <v>75.0</v>
       </c>
       <c r="AC66" s="2">
-        <v>75.0</v>
-      </c>
-      <c r="AD66" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="AE66" s="2" t="s">
-        <v>33</v>
+        <v>0.0</v>
+      </c>
+      <c r="AD66" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C67" s="2">
         <v>19.0</v>
@@ -7043,36 +6842,33 @@
         <v>0</v>
       </c>
       <c r="X67" s="2">
-        <v>1.0</v>
+        <v>295.0</v>
       </c>
       <c r="Y67" s="2">
-        <v>295.0</v>
+        <v>1800.0</v>
       </c>
       <c r="Z67" s="2">
-        <v>1800.0</v>
+        <v>800.0</v>
       </c>
       <c r="AA67" s="2">
-        <v>800.0</v>
+        <v>0.9</v>
       </c>
       <c r="AB67" s="2">
-        <v>0.9</v>
+        <v>75.0</v>
       </c>
       <c r="AC67" s="2">
-        <v>75.0</v>
-      </c>
-      <c r="AD67" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="AE67" s="2" t="s">
-        <v>38</v>
+        <v>0.0</v>
+      </c>
+      <c r="AD67" s="2" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C68" s="2">
         <v>18.0</v>
@@ -7137,36 +6933,33 @@
         <v>0</v>
       </c>
       <c r="X68" s="2">
-        <v>1.0</v>
+        <v>280.0</v>
       </c>
       <c r="Y68" s="2">
-        <v>280.0</v>
+        <v>1800.0</v>
       </c>
       <c r="Z68" s="2">
-        <v>1800.0</v>
+        <v>800.0</v>
       </c>
       <c r="AA68" s="2">
-        <v>800.0</v>
+        <v>0.6</v>
       </c>
       <c r="AB68" s="2">
-        <v>0.6</v>
+        <v>75.0</v>
       </c>
       <c r="AC68" s="2">
-        <v>75.0</v>
-      </c>
-      <c r="AD68" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="AE68" s="2" t="s">
-        <v>38</v>
+        <v>0.0</v>
+      </c>
+      <c r="AD68" s="2" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C69" s="2">
         <v>23.0</v>
@@ -7231,36 +7024,33 @@
         <v>16</v>
       </c>
       <c r="X69" s="2">
-        <v>1.0</v>
+        <v>295.0</v>
       </c>
       <c r="Y69" s="2">
-        <v>295.0</v>
+        <v>800.0</v>
       </c>
       <c r="Z69" s="2">
-        <v>800.0</v>
+        <v>1800.0</v>
       </c>
       <c r="AA69" s="2">
-        <v>1800.0</v>
+        <v>0.6</v>
       </c>
       <c r="AB69" s="2">
-        <v>0.6</v>
+        <v>75.0</v>
       </c>
       <c r="AC69" s="2">
-        <v>75.0</v>
-      </c>
-      <c r="AD69" s="2">
-        <v>0.25</v>
-      </c>
-      <c r="AE69" s="2" t="s">
-        <v>33</v>
+        <v>0.25</v>
+      </c>
+      <c r="AD69" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C70" s="2">
         <v>17.0</v>
@@ -7325,36 +7115,33 @@
         <v>16</v>
       </c>
       <c r="X70" s="2">
-        <v>1.0</v>
+        <v>310.0</v>
       </c>
       <c r="Y70" s="2">
-        <v>310.0</v>
+        <v>1800.0</v>
       </c>
       <c r="Z70" s="2">
-        <v>1800.0</v>
+        <v>800.0</v>
       </c>
       <c r="AA70" s="2">
-        <v>800.0</v>
+        <v>0.6</v>
       </c>
       <c r="AB70" s="2">
-        <v>0.6</v>
+        <v>75.0</v>
       </c>
       <c r="AC70" s="2">
-        <v>75.0</v>
-      </c>
-      <c r="AD70" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="AE70" s="2" t="s">
-        <v>33</v>
+        <v>0.0</v>
+      </c>
+      <c r="AD70" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C71" s="2">
         <v>23.0</v>
@@ -7419,36 +7206,33 @@
         <v>16</v>
       </c>
       <c r="X71" s="2">
-        <v>1.0</v>
+        <v>290.0</v>
       </c>
       <c r="Y71" s="2">
-        <v>290.0</v>
+        <v>1800.0</v>
       </c>
       <c r="Z71" s="2">
-        <v>1800.0</v>
+        <v>800.0</v>
       </c>
       <c r="AA71" s="2">
-        <v>800.0</v>
+        <v>0.6</v>
       </c>
       <c r="AB71" s="2">
-        <v>0.6</v>
+        <v>75.0</v>
       </c>
       <c r="AC71" s="2">
-        <v>75.0</v>
-      </c>
-      <c r="AD71" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="AE71" s="2" t="s">
-        <v>33</v>
+        <v>0.0</v>
+      </c>
+      <c r="AD71" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C72" s="2">
         <v>23.0</v>
@@ -7513,36 +7297,33 @@
         <v>16</v>
       </c>
       <c r="X72" s="2">
-        <v>1.0</v>
+        <v>315.0</v>
       </c>
       <c r="Y72" s="2">
-        <v>315.0</v>
+        <v>1800.0</v>
       </c>
       <c r="Z72" s="2">
-        <v>1800.0</v>
+        <v>800.0</v>
       </c>
       <c r="AA72" s="2">
-        <v>800.0</v>
+        <v>0.6</v>
       </c>
       <c r="AB72" s="2">
-        <v>0.6</v>
+        <v>75.0</v>
       </c>
       <c r="AC72" s="2">
-        <v>75.0</v>
-      </c>
-      <c r="AD72" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="AE72" s="2" t="s">
-        <v>33</v>
+        <v>0.0</v>
+      </c>
+      <c r="AD72" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C73" s="2">
         <v>20.0</v>
@@ -7607,36 +7388,33 @@
         <v>0</v>
       </c>
       <c r="X73" s="2">
-        <v>1.0</v>
+        <v>295.0</v>
       </c>
       <c r="Y73" s="2">
-        <v>295.0</v>
+        <v>1800.0</v>
       </c>
       <c r="Z73" s="2">
-        <v>1800.0</v>
+        <v>800.0</v>
       </c>
       <c r="AA73" s="2">
-        <v>800.0</v>
+        <v>0.7</v>
       </c>
       <c r="AB73" s="2">
-        <v>0.7</v>
+        <v>75.0</v>
       </c>
       <c r="AC73" s="2">
-        <v>75.0</v>
-      </c>
-      <c r="AD73" s="2">
         <v>0.5</v>
       </c>
-      <c r="AE73" s="2" t="s">
-        <v>38</v>
+      <c r="AD73" s="2" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C74" s="2">
         <v>21.0</v>
@@ -7701,36 +7479,33 @@
         <v>0</v>
       </c>
       <c r="X74" s="2">
-        <v>1.0</v>
+        <v>320.0</v>
       </c>
       <c r="Y74" s="2">
-        <v>320.0</v>
+        <v>1800.0</v>
       </c>
       <c r="Z74" s="2">
-        <v>1800.0</v>
+        <v>800.0</v>
       </c>
       <c r="AA74" s="2">
-        <v>800.0</v>
+        <v>0.6</v>
       </c>
       <c r="AB74" s="2">
-        <v>0.6</v>
+        <v>75.0</v>
       </c>
       <c r="AC74" s="2">
-        <v>75.0</v>
-      </c>
-      <c r="AD74" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="AE74" s="2" t="s">
-        <v>38</v>
+        <v>0.0</v>
+      </c>
+      <c r="AD74" s="2" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C75" s="2">
         <v>19.0</v>
@@ -7795,36 +7570,33 @@
         <v>16</v>
       </c>
       <c r="X75" s="2">
-        <v>1.0</v>
+        <v>295.0</v>
       </c>
       <c r="Y75" s="2">
-        <v>295.0</v>
+        <v>1800.0</v>
       </c>
       <c r="Z75" s="2">
-        <v>1800.0</v>
+        <v>800.0</v>
       </c>
       <c r="AA75" s="2">
-        <v>800.0</v>
+        <v>0.9</v>
       </c>
       <c r="AB75" s="2">
-        <v>0.9</v>
+        <v>75.0</v>
       </c>
       <c r="AC75" s="2">
-        <v>75.0</v>
-      </c>
-      <c r="AD75" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="AE75" s="2" t="s">
-        <v>33</v>
+        <v>0.0</v>
+      </c>
+      <c r="AD75" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C76" s="2">
         <v>19.0</v>
@@ -7889,36 +7661,33 @@
         <v>16</v>
       </c>
       <c r="X76" s="2">
-        <v>1.0</v>
+        <v>310.0</v>
       </c>
       <c r="Y76" s="2">
-        <v>310.0</v>
+        <v>1800.0</v>
       </c>
       <c r="Z76" s="2">
-        <v>1800.0</v>
+        <v>800.0</v>
       </c>
       <c r="AA76" s="2">
-        <v>800.0</v>
+        <v>0.8</v>
       </c>
       <c r="AB76" s="2">
-        <v>0.8</v>
+        <v>75.0</v>
       </c>
       <c r="AC76" s="2">
-        <v>75.0</v>
-      </c>
-      <c r="AD76" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="AE76" s="2" t="s">
-        <v>33</v>
+        <v>0.0</v>
+      </c>
+      <c r="AD76" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C77" s="2">
         <v>19.0</v>
@@ -7983,36 +7752,33 @@
         <v>16</v>
       </c>
       <c r="X77" s="2">
-        <v>1.0</v>
+        <v>285.0</v>
       </c>
       <c r="Y77" s="2">
-        <v>285.0</v>
+        <v>1800.0</v>
       </c>
       <c r="Z77" s="2">
-        <v>1800.0</v>
+        <v>800.0</v>
       </c>
       <c r="AA77" s="2">
-        <v>800.0</v>
+        <v>0.6</v>
       </c>
       <c r="AB77" s="2">
-        <v>0.6</v>
+        <v>75.0</v>
       </c>
       <c r="AC77" s="2">
-        <v>75.0</v>
-      </c>
-      <c r="AD77" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="AE77" s="2" t="s">
-        <v>33</v>
+        <v>0.0</v>
+      </c>
+      <c r="AD77" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C78" s="2">
         <v>23.0</v>
@@ -8077,36 +7843,33 @@
         <v>0</v>
       </c>
       <c r="X78" s="2">
-        <v>1.0</v>
+        <v>280.0</v>
       </c>
       <c r="Y78" s="2">
-        <v>280.0</v>
+        <v>1800.0</v>
       </c>
       <c r="Z78" s="2">
-        <v>1800.0</v>
+        <v>800.0</v>
       </c>
       <c r="AA78" s="2">
-        <v>800.0</v>
+        <v>0.9</v>
       </c>
       <c r="AB78" s="2">
-        <v>0.9</v>
+        <v>75.0</v>
       </c>
       <c r="AC78" s="2">
-        <v>75.0</v>
-      </c>
-      <c r="AD78" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="AE78" s="2" t="s">
-        <v>38</v>
+        <v>0.0</v>
+      </c>
+      <c r="AD78" s="2" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C79" s="2">
         <v>26.0</v>
@@ -8171,36 +7934,33 @@
         <v>16</v>
       </c>
       <c r="X79" s="2">
-        <v>1.0</v>
+        <v>310.0</v>
       </c>
       <c r="Y79" s="2">
-        <v>310.0</v>
+        <v>1800.0</v>
       </c>
       <c r="Z79" s="2">
-        <v>1800.0</v>
+        <v>800.0</v>
       </c>
       <c r="AA79" s="2">
-        <v>800.0</v>
+        <v>0.6</v>
       </c>
       <c r="AB79" s="2">
-        <v>0.6</v>
+        <v>75.0</v>
       </c>
       <c r="AC79" s="2">
-        <v>75.0</v>
-      </c>
-      <c r="AD79" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="AE79" s="2" t="s">
-        <v>33</v>
+        <v>0.0</v>
+      </c>
+      <c r="AD79" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C80" s="2">
         <v>17.0</v>
@@ -8265,36 +8025,33 @@
         <v>0</v>
       </c>
       <c r="X80" s="2">
-        <v>1.0</v>
+        <v>290.0</v>
       </c>
       <c r="Y80" s="2">
-        <v>290.0</v>
+        <v>1800.0</v>
       </c>
       <c r="Z80" s="2">
-        <v>1800.0</v>
+        <v>800.0</v>
       </c>
       <c r="AA80" s="2">
-        <v>800.0</v>
+        <v>0.9</v>
       </c>
       <c r="AB80" s="2">
-        <v>0.9</v>
+        <v>75.0</v>
       </c>
       <c r="AC80" s="2">
-        <v>75.0</v>
-      </c>
-      <c r="AD80" s="2">
         <v>0.5</v>
       </c>
-      <c r="AE80" s="2" t="s">
-        <v>38</v>
+      <c r="AD80" s="2" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C81" s="2">
         <v>25.0</v>
@@ -8359,36 +8116,33 @@
         <v>16</v>
       </c>
       <c r="X81" s="2">
-        <v>1.0</v>
+        <v>280.0</v>
       </c>
       <c r="Y81" s="2">
-        <v>280.0</v>
+        <v>1800.0</v>
       </c>
       <c r="Z81" s="2">
-        <v>1800.0</v>
+        <v>800.0</v>
       </c>
       <c r="AA81" s="2">
-        <v>800.0</v>
+        <v>0.7</v>
       </c>
       <c r="AB81" s="2">
-        <v>0.7</v>
+        <v>75.0</v>
       </c>
       <c r="AC81" s="2">
-        <v>75.0</v>
-      </c>
-      <c r="AD81" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="AE81" s="2" t="s">
-        <v>33</v>
+        <v>0.0</v>
+      </c>
+      <c r="AD81" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C82" s="2">
         <v>19.0</v>
@@ -8453,36 +8207,33 @@
         <v>0</v>
       </c>
       <c r="X82" s="2">
-        <v>1.0</v>
+        <v>330.0</v>
       </c>
       <c r="Y82" s="2">
-        <v>330.0</v>
+        <v>1800.0</v>
       </c>
       <c r="Z82" s="2">
-        <v>1800.0</v>
+        <v>800.0</v>
       </c>
       <c r="AA82" s="2">
-        <v>800.0</v>
+        <v>0.6</v>
       </c>
       <c r="AB82" s="2">
-        <v>0.6</v>
+        <v>75.0</v>
       </c>
       <c r="AC82" s="2">
-        <v>75.0</v>
-      </c>
-      <c r="AD82" s="2">
         <v>0.5</v>
       </c>
-      <c r="AE82" s="2" t="s">
-        <v>38</v>
+      <c r="AD82" s="2" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C83" s="2">
         <v>18.0</v>
@@ -8547,36 +8298,33 @@
         <v>0</v>
       </c>
       <c r="X83" s="2">
-        <v>1.0</v>
+        <v>290.0</v>
       </c>
       <c r="Y83" s="2">
-        <v>290.0</v>
+        <v>1800.0</v>
       </c>
       <c r="Z83" s="2">
-        <v>1800.0</v>
+        <v>800.0</v>
       </c>
       <c r="AA83" s="2">
-        <v>800.0</v>
+        <v>0.6</v>
       </c>
       <c r="AB83" s="2">
-        <v>0.6</v>
+        <v>75.0</v>
       </c>
       <c r="AC83" s="2">
-        <v>75.0</v>
-      </c>
-      <c r="AD83" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="AE83" s="2" t="s">
-        <v>38</v>
+        <v>0.0</v>
+      </c>
+      <c r="AD83" s="2" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C84" s="2">
         <v>22.0</v>
@@ -8641,36 +8389,33 @@
         <v>0</v>
       </c>
       <c r="X84" s="2">
-        <v>1.0</v>
+        <v>280.0</v>
       </c>
       <c r="Y84" s="2">
-        <v>280.0</v>
+        <v>1800.0</v>
       </c>
       <c r="Z84" s="2">
-        <v>1800.0</v>
+        <v>800.0</v>
       </c>
       <c r="AA84" s="2">
-        <v>800.0</v>
+        <v>0.6</v>
       </c>
       <c r="AB84" s="2">
-        <v>0.6</v>
+        <v>75.0</v>
       </c>
       <c r="AC84" s="2">
-        <v>75.0</v>
-      </c>
-      <c r="AD84" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="AE84" s="2" t="s">
-        <v>38</v>
+        <v>0.0</v>
+      </c>
+      <c r="AD84" s="2" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C85" s="2">
         <v>18.0</v>
@@ -8735,36 +8480,33 @@
         <v>16</v>
       </c>
       <c r="X85" s="2">
-        <v>1.0</v>
+        <v>315.0</v>
       </c>
       <c r="Y85" s="2">
-        <v>315.0</v>
+        <v>1800.0</v>
       </c>
       <c r="Z85" s="2">
-        <v>1800.0</v>
+        <v>800.0</v>
       </c>
       <c r="AA85" s="2">
-        <v>800.0</v>
+        <v>0.6</v>
       </c>
       <c r="AB85" s="2">
-        <v>0.6</v>
+        <v>75.0</v>
       </c>
       <c r="AC85" s="2">
-        <v>75.0</v>
-      </c>
-      <c r="AD85" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="AE85" s="2" t="s">
-        <v>33</v>
+        <v>0.0</v>
+      </c>
+      <c r="AD85" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C86" s="2">
         <v>21.0</v>
@@ -8829,36 +8571,33 @@
         <v>0</v>
       </c>
       <c r="X86" s="2">
-        <v>1.0</v>
+        <v>290.0</v>
       </c>
       <c r="Y86" s="2">
-        <v>290.0</v>
+        <v>1800.0</v>
       </c>
       <c r="Z86" s="2">
-        <v>1800.0</v>
+        <v>800.0</v>
       </c>
       <c r="AA86" s="2">
-        <v>800.0</v>
+        <v>0.7</v>
       </c>
       <c r="AB86" s="2">
-        <v>0.7</v>
+        <v>75.0</v>
       </c>
       <c r="AC86" s="2">
-        <v>75.0</v>
-      </c>
-      <c r="AD86" s="2">
         <v>0.5</v>
       </c>
-      <c r="AE86" s="2" t="s">
-        <v>38</v>
+      <c r="AD86" s="2" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C87" s="2">
         <v>22.0</v>
@@ -8923,36 +8662,33 @@
         <v>16</v>
       </c>
       <c r="X87" s="2">
-        <v>1.0</v>
+        <v>290.0</v>
       </c>
       <c r="Y87" s="2">
-        <v>290.0</v>
+        <v>1800.0</v>
       </c>
       <c r="Z87" s="2">
-        <v>1800.0</v>
+        <v>800.0</v>
       </c>
       <c r="AA87" s="2">
-        <v>800.0</v>
+        <v>0.6</v>
       </c>
       <c r="AB87" s="2">
-        <v>0.6</v>
+        <v>75.0</v>
       </c>
       <c r="AC87" s="2">
-        <v>75.0</v>
-      </c>
-      <c r="AD87" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="AE87" s="2" t="s">
-        <v>33</v>
+        <v>0.0</v>
+      </c>
+      <c r="AD87" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C88" s="2">
         <v>23.0</v>
@@ -9017,36 +8753,33 @@
         <v>0</v>
       </c>
       <c r="X88" s="2">
-        <v>1.0</v>
+        <v>290.0</v>
       </c>
       <c r="Y88" s="2">
-        <v>290.0</v>
+        <v>1800.0</v>
       </c>
       <c r="Z88" s="2">
-        <v>1800.0</v>
+        <v>800.0</v>
       </c>
       <c r="AA88" s="2">
-        <v>800.0</v>
+        <v>0.6</v>
       </c>
       <c r="AB88" s="2">
-        <v>0.6</v>
+        <v>75.0</v>
       </c>
       <c r="AC88" s="2">
-        <v>75.0</v>
-      </c>
-      <c r="AD88" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="AE88" s="2" t="s">
-        <v>38</v>
+        <v>0.0</v>
+      </c>
+      <c r="AD88" s="2" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C89" s="2">
         <v>19.0</v>
@@ -9111,36 +8844,33 @@
         <v>0</v>
       </c>
       <c r="X89" s="2">
-        <v>1.0</v>
+        <v>305.0</v>
       </c>
       <c r="Y89" s="2">
-        <v>305.0</v>
+        <v>1800.0</v>
       </c>
       <c r="Z89" s="2">
-        <v>1800.0</v>
+        <v>800.0</v>
       </c>
       <c r="AA89" s="2">
-        <v>800.0</v>
+        <v>0.9</v>
       </c>
       <c r="AB89" s="2">
-        <v>0.9</v>
+        <v>75.0</v>
       </c>
       <c r="AC89" s="2">
-        <v>75.0</v>
-      </c>
-      <c r="AD89" s="2">
         <v>0.3</v>
       </c>
-      <c r="AE89" s="2" t="s">
-        <v>38</v>
+      <c r="AD89" s="2" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C90" s="2">
         <v>23.0</v>
@@ -9205,36 +8935,33 @@
         <v>0</v>
       </c>
       <c r="X90" s="2">
-        <v>1.0</v>
+        <v>285.0</v>
       </c>
       <c r="Y90" s="2">
-        <v>285.0</v>
+        <v>1800.0</v>
       </c>
       <c r="Z90" s="2">
-        <v>1800.0</v>
+        <v>800.0</v>
       </c>
       <c r="AA90" s="2">
-        <v>800.0</v>
+        <v>0.6</v>
       </c>
       <c r="AB90" s="2">
-        <v>0.6</v>
+        <v>75.0</v>
       </c>
       <c r="AC90" s="2">
-        <v>75.0</v>
-      </c>
-      <c r="AD90" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="AE90" s="2" t="s">
-        <v>38</v>
+        <v>0.0</v>
+      </c>
+      <c r="AD90" s="2" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C91" s="2">
         <v>19.0</v>
@@ -9299,36 +9026,33 @@
         <v>0</v>
       </c>
       <c r="X91" s="2">
-        <v>1.0</v>
+        <v>290.0</v>
       </c>
       <c r="Y91" s="2">
-        <v>290.0</v>
+        <v>1800.0</v>
       </c>
       <c r="Z91" s="2">
-        <v>1800.0</v>
+        <v>800.0</v>
       </c>
       <c r="AA91" s="2">
-        <v>800.0</v>
+        <v>0.6</v>
       </c>
       <c r="AB91" s="2">
-        <v>0.6</v>
+        <v>75.0</v>
       </c>
       <c r="AC91" s="2">
-        <v>75.0</v>
-      </c>
-      <c r="AD91" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="AE91" s="2" t="s">
-        <v>38</v>
+        <v>0.0</v>
+      </c>
+      <c r="AD91" s="2" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C92" s="2">
         <v>21.0</v>
@@ -9393,36 +9117,33 @@
         <v>0</v>
       </c>
       <c r="X92" s="2">
-        <v>1.0</v>
+        <v>325.0</v>
       </c>
       <c r="Y92" s="2">
-        <v>325.0</v>
+        <v>1800.0</v>
       </c>
       <c r="Z92" s="2">
-        <v>1800.0</v>
+        <v>800.0</v>
       </c>
       <c r="AA92" s="2">
-        <v>800.0</v>
+        <v>0.6</v>
       </c>
       <c r="AB92" s="2">
-        <v>0.6</v>
+        <v>75.0</v>
       </c>
       <c r="AC92" s="2">
-        <v>75.0</v>
-      </c>
-      <c r="AD92" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="AE92" s="2" t="s">
-        <v>38</v>
+        <v>0.0</v>
+      </c>
+      <c r="AD92" s="2" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C93" s="2">
         <v>21.0</v>
@@ -9487,36 +9208,33 @@
         <v>16</v>
       </c>
       <c r="X93" s="2">
-        <v>1.0</v>
+        <v>300.0</v>
       </c>
       <c r="Y93" s="2">
-        <v>300.0</v>
+        <v>1800.0</v>
       </c>
       <c r="Z93" s="2">
-        <v>1800.0</v>
+        <v>800.0</v>
       </c>
       <c r="AA93" s="2">
-        <v>800.0</v>
+        <v>0.6</v>
       </c>
       <c r="AB93" s="2">
-        <v>0.6</v>
+        <v>75.0</v>
       </c>
       <c r="AC93" s="2">
-        <v>75.0</v>
-      </c>
-      <c r="AD93" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="AE93" s="2" t="s">
-        <v>33</v>
+        <v>0.0</v>
+      </c>
+      <c r="AD93" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C94" s="2">
         <v>20.0</v>
@@ -9581,36 +9299,33 @@
         <v>16</v>
       </c>
       <c r="X94" s="2">
-        <v>1.0</v>
+        <v>300.0</v>
       </c>
       <c r="Y94" s="2">
-        <v>300.0</v>
+        <v>1800.0</v>
       </c>
       <c r="Z94" s="2">
         <v>1800.0</v>
       </c>
       <c r="AA94" s="2">
-        <v>1800.0</v>
+        <v>0.7</v>
       </c>
       <c r="AB94" s="2">
-        <v>0.7</v>
+        <v>75.0</v>
       </c>
       <c r="AC94" s="2">
-        <v>75.0</v>
-      </c>
-      <c r="AD94" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="AE94" s="2" t="s">
-        <v>33</v>
+        <v>0.0</v>
+      </c>
+      <c r="AD94" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C95" s="2">
         <v>21.0</v>
@@ -9675,36 +9390,33 @@
         <v>0</v>
       </c>
       <c r="X95" s="2">
-        <v>1.0</v>
+        <v>300.0</v>
       </c>
       <c r="Y95" s="2">
-        <v>300.0</v>
+        <v>1800.0</v>
       </c>
       <c r="Z95" s="2">
-        <v>1800.0</v>
+        <v>800.0</v>
       </c>
       <c r="AA95" s="2">
-        <v>800.0</v>
+        <v>0.6</v>
       </c>
       <c r="AB95" s="2">
-        <v>0.6</v>
+        <v>75.0</v>
       </c>
       <c r="AC95" s="2">
-        <v>75.0</v>
-      </c>
-      <c r="AD95" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="AE95" s="2" t="s">
-        <v>38</v>
+        <v>0.0</v>
+      </c>
+      <c r="AD95" s="2" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C96" s="2">
         <v>19.0</v>
@@ -9769,36 +9481,33 @@
         <v>0</v>
       </c>
       <c r="X96" s="2">
-        <v>1.0</v>
+        <v>285.0</v>
       </c>
       <c r="Y96" s="2">
-        <v>285.0</v>
+        <v>1800.0</v>
       </c>
       <c r="Z96" s="2">
-        <v>1800.0</v>
+        <v>1400.0</v>
       </c>
       <c r="AA96" s="2">
-        <v>1400.0</v>
+        <v>0.7</v>
       </c>
       <c r="AB96" s="2">
-        <v>0.7</v>
+        <v>75.0</v>
       </c>
       <c r="AC96" s="2">
-        <v>75.0</v>
-      </c>
-      <c r="AD96" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="AE96" s="2" t="s">
-        <v>38</v>
+        <v>0.0</v>
+      </c>
+      <c r="AD96" s="2" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C97" s="2">
         <v>21.0</v>
@@ -9863,36 +9572,33 @@
         <v>16</v>
       </c>
       <c r="X97" s="2">
-        <v>1.0</v>
+        <v>290.0</v>
       </c>
       <c r="Y97" s="2">
-        <v>290.0</v>
+        <v>1800.0</v>
       </c>
       <c r="Z97" s="2">
-        <v>1800.0</v>
+        <v>800.0</v>
       </c>
       <c r="AA97" s="2">
-        <v>800.0</v>
+        <v>0.6</v>
       </c>
       <c r="AB97" s="2">
-        <v>0.6</v>
+        <v>75.0</v>
       </c>
       <c r="AC97" s="2">
-        <v>75.0</v>
-      </c>
-      <c r="AD97" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="AE97" s="2" t="s">
-        <v>33</v>
+        <v>0.0</v>
+      </c>
+      <c r="AD97" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C98" s="2">
         <v>28.0</v>
@@ -9957,36 +9663,33 @@
         <v>16</v>
       </c>
       <c r="X98" s="2">
-        <v>1.0</v>
+        <v>295.0</v>
       </c>
       <c r="Y98" s="2">
-        <v>295.0</v>
+        <v>1800.0</v>
       </c>
       <c r="Z98" s="2">
-        <v>1800.0</v>
+        <v>800.0</v>
       </c>
       <c r="AA98" s="2">
-        <v>800.0</v>
+        <v>0.6</v>
       </c>
       <c r="AB98" s="2">
-        <v>0.6</v>
+        <v>75.0</v>
       </c>
       <c r="AC98" s="2">
-        <v>75.0</v>
-      </c>
-      <c r="AD98" s="2">
         <v>0.5</v>
       </c>
-      <c r="AE98" s="2" t="s">
-        <v>33</v>
+      <c r="AD98" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C99" s="2">
         <v>21.0</v>
@@ -10051,36 +9754,33 @@
         <v>0</v>
       </c>
       <c r="X99" s="2">
-        <v>1.0</v>
+        <v>285.0</v>
       </c>
       <c r="Y99" s="2">
-        <v>285.0</v>
+        <v>1800.0</v>
       </c>
       <c r="Z99" s="2">
-        <v>1800.0</v>
+        <v>800.0</v>
       </c>
       <c r="AA99" s="2">
-        <v>800.0</v>
+        <v>0.8</v>
       </c>
       <c r="AB99" s="2">
-        <v>0.8</v>
+        <v>75.0</v>
       </c>
       <c r="AC99" s="2">
-        <v>75.0</v>
-      </c>
-      <c r="AD99" s="2">
         <v>0.6</v>
       </c>
-      <c r="AE99" s="2" t="s">
-        <v>38</v>
+      <c r="AD99" s="2" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C100" s="2">
         <v>22.0</v>
@@ -10145,36 +9845,33 @@
         <v>16</v>
       </c>
       <c r="X100" s="2">
-        <v>1.0</v>
+        <v>325.0</v>
       </c>
       <c r="Y100" s="2">
-        <v>325.0</v>
+        <v>1800.0</v>
       </c>
       <c r="Z100" s="2">
-        <v>1800.0</v>
+        <v>800.0</v>
       </c>
       <c r="AA100" s="2">
-        <v>800.0</v>
+        <v>0.6</v>
       </c>
       <c r="AB100" s="2">
-        <v>0.6</v>
+        <v>75.0</v>
       </c>
       <c r="AC100" s="2">
-        <v>75.0</v>
-      </c>
-      <c r="AD100" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="AE100" s="2" t="s">
-        <v>33</v>
+        <v>0.0</v>
+      </c>
+      <c r="AD100" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C101" s="2">
         <v>19.0</v>
@@ -10239,36 +9936,33 @@
         <v>0</v>
       </c>
       <c r="X101" s="2">
+        <v>300.0</v>
+      </c>
+      <c r="Y101" s="2">
+        <v>1800.0</v>
+      </c>
+      <c r="Z101" s="2">
+        <v>800.0</v>
+      </c>
+      <c r="AA101" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="AB101" s="2">
+        <v>75.0</v>
+      </c>
+      <c r="AC101" s="2">
         <v>1.0</v>
       </c>
-      <c r="Y101" s="2">
-        <v>300.0</v>
-      </c>
-      <c r="Z101" s="2">
-        <v>1800.0</v>
-      </c>
-      <c r="AA101" s="2">
-        <v>800.0</v>
-      </c>
-      <c r="AB101" s="2">
-        <v>0.6</v>
-      </c>
-      <c r="AC101" s="2">
-        <v>75.0</v>
-      </c>
-      <c r="AD101" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="AE101" s="2" t="s">
-        <v>38</v>
+      <c r="AD101" s="2" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C102" s="2">
         <v>23.0</v>
@@ -10333,36 +10027,33 @@
         <v>0</v>
       </c>
       <c r="X102" s="2">
-        <v>1.0</v>
+        <v>310.0</v>
       </c>
       <c r="Y102" s="2">
-        <v>310.0</v>
+        <v>1800.0</v>
       </c>
       <c r="Z102" s="2">
-        <v>1800.0</v>
+        <v>800.0</v>
       </c>
       <c r="AA102" s="2">
-        <v>800.0</v>
+        <v>0.7</v>
       </c>
       <c r="AB102" s="2">
-        <v>0.7</v>
+        <v>75.0</v>
       </c>
       <c r="AC102" s="2">
-        <v>75.0</v>
-      </c>
-      <c r="AD102" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="AE102" s="2" t="s">
-        <v>38</v>
+        <v>0.0</v>
+      </c>
+      <c r="AD102" s="2" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C103" s="2">
         <v>16.0</v>
@@ -10427,36 +10118,33 @@
         <v>16</v>
       </c>
       <c r="X103" s="2">
-        <v>1.0</v>
+        <v>315.0</v>
       </c>
       <c r="Y103" s="2">
-        <v>315.0</v>
+        <v>1800.0</v>
       </c>
       <c r="Z103" s="2">
-        <v>1800.0</v>
+        <v>800.0</v>
       </c>
       <c r="AA103" s="2">
-        <v>800.0</v>
+        <v>0.8</v>
       </c>
       <c r="AB103" s="2">
-        <v>0.8</v>
+        <v>75.0</v>
       </c>
       <c r="AC103" s="2">
-        <v>75.0</v>
-      </c>
-      <c r="AD103" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="AE103" s="2" t="s">
-        <v>33</v>
+        <v>0.0</v>
+      </c>
+      <c r="AD103" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C104" s="2">
         <v>27.0</v>
@@ -10521,36 +10209,33 @@
         <v>16</v>
       </c>
       <c r="X104" s="2">
-        <v>1.0</v>
+        <v>300.0</v>
       </c>
       <c r="Y104" s="2">
-        <v>300.0</v>
+        <v>1800.0</v>
       </c>
       <c r="Z104" s="2">
-        <v>1800.0</v>
+        <v>800.0</v>
       </c>
       <c r="AA104" s="2">
-        <v>800.0</v>
+        <v>0.6</v>
       </c>
       <c r="AB104" s="2">
-        <v>0.6</v>
+        <v>75.0</v>
       </c>
       <c r="AC104" s="2">
-        <v>75.0</v>
-      </c>
-      <c r="AD104" s="2">
         <v>0.5</v>
       </c>
-      <c r="AE104" s="2" t="s">
-        <v>33</v>
+      <c r="AD104" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C105" s="2">
         <v>27.0</v>
@@ -10615,36 +10300,33 @@
         <v>16</v>
       </c>
       <c r="X105" s="2">
-        <v>1.0</v>
+        <v>285.0</v>
       </c>
       <c r="Y105" s="2">
-        <v>285.0</v>
+        <v>1800.0</v>
       </c>
       <c r="Z105" s="2">
-        <v>1800.0</v>
+        <v>800.0</v>
       </c>
       <c r="AA105" s="2">
-        <v>800.0</v>
+        <v>0.6</v>
       </c>
       <c r="AB105" s="2">
-        <v>0.6</v>
+        <v>75.0</v>
       </c>
       <c r="AC105" s="2">
-        <v>75.0</v>
-      </c>
-      <c r="AD105" s="2">
         <v>0.5</v>
       </c>
-      <c r="AE105" s="2" t="s">
-        <v>33</v>
+      <c r="AD105" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C106" s="2">
         <v>19.0</v>
@@ -10709,36 +10391,33 @@
         <v>0</v>
       </c>
       <c r="X106" s="2">
-        <v>1.0</v>
+        <v>290.0</v>
       </c>
       <c r="Y106" s="2">
-        <v>290.0</v>
+        <v>1800.0</v>
       </c>
       <c r="Z106" s="2">
-        <v>1800.0</v>
+        <v>800.0</v>
       </c>
       <c r="AA106" s="2">
-        <v>800.0</v>
+        <v>0.6</v>
       </c>
       <c r="AB106" s="2">
-        <v>0.6</v>
+        <v>75.0</v>
       </c>
       <c r="AC106" s="2">
-        <v>75.0</v>
-      </c>
-      <c r="AD106" s="2">
         <v>0.75</v>
       </c>
-      <c r="AE106" s="2" t="s">
-        <v>38</v>
+      <c r="AD106" s="2" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C107" s="2">
         <v>30.0</v>
@@ -10803,36 +10482,33 @@
         <v>16</v>
       </c>
       <c r="X107" s="2">
-        <v>1.0</v>
+        <v>285.0</v>
       </c>
       <c r="Y107" s="2">
-        <v>285.0</v>
+        <v>1800.0</v>
       </c>
       <c r="Z107" s="2">
-        <v>1800.0</v>
+        <v>800.0</v>
       </c>
       <c r="AA107" s="2">
-        <v>800.0</v>
+        <v>0.6</v>
       </c>
       <c r="AB107" s="2">
-        <v>0.6</v>
+        <v>75.0</v>
       </c>
       <c r="AC107" s="2">
-        <v>75.0</v>
-      </c>
-      <c r="AD107" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="AE107" s="2" t="s">
-        <v>33</v>
+        <v>0.0</v>
+      </c>
+      <c r="AD107" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C108" s="2">
         <v>25.0</v>
@@ -10897,36 +10573,33 @@
         <v>16</v>
       </c>
       <c r="X108" s="2">
-        <v>1.0</v>
+        <v>280.0</v>
       </c>
       <c r="Y108" s="2">
-        <v>280.0</v>
+        <v>1800.0</v>
       </c>
       <c r="Z108" s="2">
-        <v>1800.0</v>
+        <v>800.0</v>
       </c>
       <c r="AA108" s="2">
-        <v>800.0</v>
+        <v>0.6</v>
       </c>
       <c r="AB108" s="2">
-        <v>0.6</v>
+        <v>75.0</v>
       </c>
       <c r="AC108" s="2">
-        <v>75.0</v>
-      </c>
-      <c r="AD108" s="2">
-        <v>0.25</v>
-      </c>
-      <c r="AE108" s="2" t="s">
-        <v>33</v>
+        <v>0.25</v>
+      </c>
+      <c r="AD108" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C109" s="2">
         <v>21.0</v>
@@ -10991,36 +10664,33 @@
         <v>0</v>
       </c>
       <c r="X109" s="2">
-        <v>1.0</v>
+        <v>290.0</v>
       </c>
       <c r="Y109" s="2">
-        <v>290.0</v>
+        <v>1800.0</v>
       </c>
       <c r="Z109" s="2">
-        <v>1800.0</v>
+        <v>800.0</v>
       </c>
       <c r="AA109" s="2">
-        <v>800.0</v>
+        <v>0.6</v>
       </c>
       <c r="AB109" s="2">
-        <v>0.6</v>
+        <v>75.0</v>
       </c>
       <c r="AC109" s="2">
-        <v>75.0</v>
-      </c>
-      <c r="AD109" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="AE109" s="2" t="s">
-        <v>38</v>
+        <v>0.0</v>
+      </c>
+      <c r="AD109" s="2" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C110" s="2">
         <v>23.0</v>
@@ -11085,36 +10755,33 @@
         <v>16</v>
       </c>
       <c r="X110" s="2">
-        <v>1.0</v>
+        <v>310.0</v>
       </c>
       <c r="Y110" s="2">
-        <v>310.0</v>
+        <v>1800.0</v>
       </c>
       <c r="Z110" s="2">
-        <v>1800.0</v>
+        <v>800.0</v>
       </c>
       <c r="AA110" s="2">
-        <v>800.0</v>
+        <v>0.7</v>
       </c>
       <c r="AB110" s="2">
-        <v>0.7</v>
+        <v>75.0</v>
       </c>
       <c r="AC110" s="2">
-        <v>75.0</v>
-      </c>
-      <c r="AD110" s="2">
         <v>0.5</v>
       </c>
-      <c r="AE110" s="2" t="s">
-        <v>33</v>
+      <c r="AD110" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C111" s="2">
         <v>25.0</v>
@@ -11179,36 +10846,33 @@
         <v>16</v>
       </c>
       <c r="X111" s="2">
-        <v>1.0</v>
+        <v>290.0</v>
       </c>
       <c r="Y111" s="2">
-        <v>290.0</v>
+        <v>1800.0</v>
       </c>
       <c r="Z111" s="2">
-        <v>1800.0</v>
+        <v>800.0</v>
       </c>
       <c r="AA111" s="2">
-        <v>800.0</v>
+        <v>0.6</v>
       </c>
       <c r="AB111" s="2">
-        <v>0.6</v>
+        <v>75.0</v>
       </c>
       <c r="AC111" s="2">
-        <v>75.0</v>
-      </c>
-      <c r="AD111" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="AE111" s="2" t="s">
-        <v>33</v>
+        <v>0.0</v>
+      </c>
+      <c r="AD111" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C112" s="2">
         <v>22.0</v>
@@ -11273,36 +10937,33 @@
         <v>16</v>
       </c>
       <c r="X112" s="2">
-        <v>1.0</v>
+        <v>300.0</v>
       </c>
       <c r="Y112" s="2">
-        <v>300.0</v>
+        <v>1800.0</v>
       </c>
       <c r="Z112" s="2">
-        <v>1800.0</v>
+        <v>800.0</v>
       </c>
       <c r="AA112" s="2">
-        <v>800.0</v>
+        <v>0.6</v>
       </c>
       <c r="AB112" s="2">
-        <v>0.6</v>
+        <v>75.0</v>
       </c>
       <c r="AC112" s="2">
-        <v>75.0</v>
-      </c>
-      <c r="AD112" s="2">
-        <v>0.25</v>
-      </c>
-      <c r="AE112" s="2" t="s">
-        <v>33</v>
+        <v>0.25</v>
+      </c>
+      <c r="AD112" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C113" s="2">
         <v>25.0</v>
@@ -11367,36 +11028,33 @@
         <v>16</v>
       </c>
       <c r="X113" s="2">
-        <v>1.0</v>
+        <v>310.0</v>
       </c>
       <c r="Y113" s="2">
-        <v>310.0</v>
+        <v>1800.0</v>
       </c>
       <c r="Z113" s="2">
-        <v>1800.0</v>
+        <v>800.0</v>
       </c>
       <c r="AA113" s="2">
-        <v>800.0</v>
+        <v>0.6</v>
       </c>
       <c r="AB113" s="2">
-        <v>0.6</v>
+        <v>75.0</v>
       </c>
       <c r="AC113" s="2">
-        <v>75.0</v>
-      </c>
-      <c r="AD113" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="AE113" s="2" t="s">
-        <v>33</v>
+        <v>0.0</v>
+      </c>
+      <c r="AD113" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C114" s="2">
         <v>20.0</v>
@@ -11461,36 +11119,33 @@
         <v>0</v>
       </c>
       <c r="X114" s="2">
-        <v>1.0</v>
+        <v>295.0</v>
       </c>
       <c r="Y114" s="2">
-        <v>295.0</v>
+        <v>1800.0</v>
       </c>
       <c r="Z114" s="2">
-        <v>1800.0</v>
+        <v>800.0</v>
       </c>
       <c r="AA114" s="2">
-        <v>800.0</v>
+        <v>0.6</v>
       </c>
       <c r="AB114" s="2">
-        <v>0.6</v>
+        <v>75.0</v>
       </c>
       <c r="AC114" s="2">
-        <v>75.0</v>
-      </c>
-      <c r="AD114" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="AE114" s="2" t="s">
-        <v>38</v>
+        <v>0.0</v>
+      </c>
+      <c r="AD114" s="2" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C115" s="2">
         <v>19.0</v>
@@ -11555,36 +11210,33 @@
         <v>0</v>
       </c>
       <c r="X115" s="2">
-        <v>1.0</v>
+        <v>280.0</v>
       </c>
       <c r="Y115" s="2">
-        <v>280.0</v>
+        <v>1800.0</v>
       </c>
       <c r="Z115" s="2">
-        <v>1800.0</v>
+        <v>800.0</v>
       </c>
       <c r="AA115" s="2">
-        <v>800.0</v>
+        <v>0.6</v>
       </c>
       <c r="AB115" s="2">
-        <v>0.6</v>
+        <v>75.0</v>
       </c>
       <c r="AC115" s="2">
-        <v>75.0</v>
-      </c>
-      <c r="AD115" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="AE115" s="2" t="s">
-        <v>38</v>
+        <v>0.0</v>
+      </c>
+      <c r="AD115" s="2" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C116" s="2">
         <v>21.0</v>
@@ -11649,36 +11301,33 @@
         <v>0</v>
       </c>
       <c r="X116" s="2">
-        <v>1.0</v>
+        <v>275.0</v>
       </c>
       <c r="Y116" s="2">
-        <v>275.0</v>
+        <v>1800.0</v>
       </c>
       <c r="Z116" s="2">
-        <v>1800.0</v>
+        <v>800.0</v>
       </c>
       <c r="AA116" s="2">
-        <v>800.0</v>
+        <v>0.6</v>
       </c>
       <c r="AB116" s="2">
-        <v>0.6</v>
+        <v>75.0</v>
       </c>
       <c r="AC116" s="2">
-        <v>75.0</v>
-      </c>
-      <c r="AD116" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="AE116" s="2" t="s">
-        <v>38</v>
+        <v>0.0</v>
+      </c>
+      <c r="AD116" s="2" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C117" s="2">
         <v>22.0</v>
@@ -11743,36 +11392,33 @@
         <v>0</v>
       </c>
       <c r="X117" s="2">
-        <v>1.0</v>
+        <v>285.0</v>
       </c>
       <c r="Y117" s="2">
-        <v>285.0</v>
+        <v>1800.0</v>
       </c>
       <c r="Z117" s="2">
-        <v>1800.0</v>
+        <v>800.0</v>
       </c>
       <c r="AA117" s="2">
-        <v>800.0</v>
+        <v>0.6</v>
       </c>
       <c r="AB117" s="2">
-        <v>0.6</v>
+        <v>75.0</v>
       </c>
       <c r="AC117" s="2">
-        <v>75.0</v>
-      </c>
-      <c r="AD117" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="AE117" s="2" t="s">
-        <v>38</v>
+        <v>0.0</v>
+      </c>
+      <c r="AD117" s="2" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C118" s="2">
         <v>21.0</v>
@@ -11837,36 +11483,33 @@
         <v>16</v>
       </c>
       <c r="X118" s="2">
-        <v>1.0</v>
+        <v>290.0</v>
       </c>
       <c r="Y118" s="2">
-        <v>290.0</v>
+        <v>1800.0</v>
       </c>
       <c r="Z118" s="2">
-        <v>1800.0</v>
+        <v>800.0</v>
       </c>
       <c r="AA118" s="2">
-        <v>800.0</v>
+        <v>0.7</v>
       </c>
       <c r="AB118" s="2">
-        <v>0.7</v>
+        <v>75.0</v>
       </c>
       <c r="AC118" s="2">
-        <v>75.0</v>
-      </c>
-      <c r="AD118" s="2">
         <v>0.6</v>
       </c>
-      <c r="AE118" s="2" t="s">
-        <v>33</v>
+      <c r="AD118" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C119" s="2">
         <v>24.0</v>
@@ -11931,36 +11574,33 @@
         <v>0</v>
       </c>
       <c r="X119" s="2">
-        <v>1.0</v>
+        <v>300.0</v>
       </c>
       <c r="Y119" s="2">
-        <v>300.0</v>
+        <v>1800.0</v>
       </c>
       <c r="Z119" s="2">
-        <v>1800.0</v>
+        <v>800.0</v>
       </c>
       <c r="AA119" s="2">
-        <v>800.0</v>
+        <v>0.6</v>
       </c>
       <c r="AB119" s="2">
-        <v>0.6</v>
+        <v>75.0</v>
       </c>
       <c r="AC119" s="2">
-        <v>75.0</v>
-      </c>
-      <c r="AD119" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="AE119" s="2" t="s">
-        <v>38</v>
+        <v>0.0</v>
+      </c>
+      <c r="AD119" s="2" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C120" s="2">
         <v>16.0</v>
@@ -12025,36 +11665,33 @@
         <v>0</v>
       </c>
       <c r="X120" s="2">
-        <v>1.0</v>
+        <v>275.0</v>
       </c>
       <c r="Y120" s="2">
-        <v>275.0</v>
+        <v>1800.0</v>
       </c>
       <c r="Z120" s="2">
-        <v>1800.0</v>
+        <v>800.0</v>
       </c>
       <c r="AA120" s="2">
-        <v>800.0</v>
+        <v>0.6</v>
       </c>
       <c r="AB120" s="2">
-        <v>0.6</v>
+        <v>75.0</v>
       </c>
       <c r="AC120" s="2">
-        <v>75.0</v>
-      </c>
-      <c r="AD120" s="2">
         <v>0.5</v>
       </c>
-      <c r="AE120" s="2" t="s">
-        <v>38</v>
+      <c r="AD120" s="2" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C121" s="2">
         <v>18.0</v>
@@ -12119,36 +11756,33 @@
         <v>0</v>
       </c>
       <c r="X121" s="2">
-        <v>1.0</v>
+        <v>290.0</v>
       </c>
       <c r="Y121" s="2">
-        <v>290.0</v>
+        <v>1800.0</v>
       </c>
       <c r="Z121" s="2">
-        <v>1800.0</v>
+        <v>800.0</v>
       </c>
       <c r="AA121" s="2">
-        <v>800.0</v>
+        <v>0.8</v>
       </c>
       <c r="AB121" s="2">
-        <v>0.8</v>
+        <v>75.0</v>
       </c>
       <c r="AC121" s="2">
-        <v>75.0</v>
-      </c>
-      <c r="AD121" s="2">
-        <v>0.25</v>
-      </c>
-      <c r="AE121" s="2" t="s">
-        <v>38</v>
+        <v>0.25</v>
+      </c>
+      <c r="AD121" s="2" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C122" s="2">
         <v>20.0</v>
@@ -12213,36 +11847,33 @@
         <v>0</v>
       </c>
       <c r="X122" s="2">
-        <v>1.0</v>
+        <v>285.0</v>
       </c>
       <c r="Y122" s="2">
-        <v>285.0</v>
+        <v>1800.0</v>
       </c>
       <c r="Z122" s="2">
-        <v>1800.0</v>
+        <v>800.0</v>
       </c>
       <c r="AA122" s="2">
-        <v>800.0</v>
+        <v>0.6</v>
       </c>
       <c r="AB122" s="2">
-        <v>0.6</v>
+        <v>75.0</v>
       </c>
       <c r="AC122" s="2">
-        <v>75.0</v>
-      </c>
-      <c r="AD122" s="2">
-        <v>0.25</v>
-      </c>
-      <c r="AE122" s="2" t="s">
-        <v>38</v>
+        <v>0.25</v>
+      </c>
+      <c r="AD122" s="2" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C123" s="2">
         <v>20.0</v>
@@ -12307,36 +11938,33 @@
         <v>0</v>
       </c>
       <c r="X123" s="2">
-        <v>1.0</v>
+        <v>300.0</v>
       </c>
       <c r="Y123" s="2">
-        <v>300.0</v>
+        <v>1800.0</v>
       </c>
       <c r="Z123" s="2">
-        <v>1800.0</v>
+        <v>800.0</v>
       </c>
       <c r="AA123" s="2">
-        <v>800.0</v>
+        <v>0.6</v>
       </c>
       <c r="AB123" s="2">
-        <v>0.6</v>
+        <v>75.0</v>
       </c>
       <c r="AC123" s="2">
-        <v>75.0</v>
-      </c>
-      <c r="AD123" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="AE123" s="2" t="s">
-        <v>38</v>
+        <v>0.0</v>
+      </c>
+      <c r="AD123" s="2" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C124" s="2">
         <v>22.0</v>
@@ -12401,36 +12029,33 @@
         <v>16</v>
       </c>
       <c r="X124" s="2">
-        <v>1.0</v>
+        <v>315.0</v>
       </c>
       <c r="Y124" s="2">
-        <v>315.0</v>
+        <v>1800.0</v>
       </c>
       <c r="Z124" s="2">
-        <v>1800.0</v>
+        <v>800.0</v>
       </c>
       <c r="AA124" s="2">
-        <v>800.0</v>
+        <v>0.6</v>
       </c>
       <c r="AB124" s="2">
-        <v>0.6</v>
+        <v>75.0</v>
       </c>
       <c r="AC124" s="2">
-        <v>75.0</v>
-      </c>
-      <c r="AD124" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="AE124" s="2" t="s">
-        <v>33</v>
+        <v>0.0</v>
+      </c>
+      <c r="AD124" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C125" s="2">
         <v>19.0</v>
@@ -12495,28 +12120,25 @@
         <v>0</v>
       </c>
       <c r="X125" s="2">
-        <v>1.0</v>
+        <v>315.0</v>
       </c>
       <c r="Y125" s="2">
-        <v>315.0</v>
+        <v>1800.0</v>
       </c>
       <c r="Z125" s="2">
-        <v>1800.0</v>
+        <v>800.0</v>
       </c>
       <c r="AA125" s="2">
-        <v>800.0</v>
+        <v>0.6</v>
       </c>
       <c r="AB125" s="2">
-        <v>0.6</v>
+        <v>75.0</v>
       </c>
       <c r="AC125" s="2">
-        <v>75.0</v>
-      </c>
-      <c r="AD125" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="AE125" s="2" t="s">
-        <v>38</v>
+        <v>0.0</v>
+      </c>
+      <c r="AD125" s="2" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
